--- a/KFLA/data.xlsx
+++ b/KFLA/data.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kodnetas\KFLA\KFLA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB1E57B-C7FD-476F-9E25-F83CD4D94B52}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9437B7-A10B-46B6-82DA-0912505B9A2C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="19200" windowHeight="8745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="28800" windowHeight="10725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="38 competency questions" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="361">
   <si>
     <t>Competency Name</t>
   </si>
@@ -944,6 +944,1051 @@
   </si>
   <si>
     <t xml:space="preserve">Cluster A - Understanding the Business	</t>
+  </si>
+  <si>
+    <t>LESS SKILLED</t>
+  </si>
+  <si>
+    <t>SKILLED</t>
+  </si>
+  <si>
+    <t>TALENTED</t>
+  </si>
+  <si>
+    <t>OVERUSED SKILL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fails to accept a fair share of personal responsibility.
+Gathers little information about how things are going.
+Provides inadequate feedback; fails to help others adjust course midstream.
+Prefers to be one of many accountable for an assignment.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Follows through on commitments and makes sure others do the same.
+Acts with a clear sense of ownership.
+Takes personal responsibility for decisions, actions, and failures.
+Establishes clear responsibilities and processes for monitoring work and measuring results.
+Designs feedback loops into work.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assumes responsibility for the outcomes of others.
+Promotes a sense of urgency and establishes and enforces individual accountability in the team.
+Works with people to establish explicit performance standards.
+Is completely on top of what is going on and knows where things stand.
+Provides balanced feedback at the most critical times.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May not give appropriate credit to others.
+Strictly enforces accountability; doesn’t consider situations that are beyond individuals’ control.
+Focuses too much on numbers and hard data; measurement becomes a goal and a pursuit of its own.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is slow to act on an opportunity.
+Spends too much time planning and looking for information.
+May be overly methodical, taking too long to act on a problem.
+Is reluctant to step up to challenges; waits for someone else to take action.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Readily takes action on challenges, without unnecessary planning.
+Identifies and seizes new opportunities.
+Displays a can-do attitude in good and bad times.
+Steps up to handle tough issues.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quickly and decisively takes action in fast-changing, unpredictable situations.
+Shows a tremendous amount of initiative in tough situations; is exceptional at spotting and seizing opportunities.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pushes solutions before adequate analysis.
+May waste energy by immediately tackling an issue, forcing rework along the way.
+Is so ready to act alone, misses counsel from others.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Struggles to make progress when facing ambiguous or uncertain situations.
+Delays moving forward until all the details are known.
+Appears stressed when things are uncertain.
+Operates best when things are structured and predictable.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deals comfortably with the uncertainty of change.
+Effectively handles risk.
+Can decide and act without the total picture.
+Is calm and productive, even when things are up in the air.
+Deals constructively with problems that do not have clear solutions or outcomes.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is energized when faced with ambiguity and uncertainty.
+Makes significant progress and remains calm and composed, even when things are uncertain.
+Manages the risk that comes with moving forward when the outcome isn’t certain.
+Adapts quickly to changing conditions.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May move to conclusions or action without enough data.
+May err toward the new and risky at the expense of proven solutions.
+Doesn’t honor others’ need for some level of clarity before acting.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haphazardly selects talent into the organization.
+Takes little action to match the talent to the role or organization.
+Is unclear about selection criteria or how to evaluate others’ skills.
+Selects people that are very similar to self.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attracts and selects diverse and high caliber talent.
+Finds the right talent to meet the group’s needs.
+Closes talent gaps with the right balance of internal and external candidates.
+Is a good judge of talent.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actively seeks and secures the best talent available.
+Creates pipelines of talent for the future from both internal and external talent pools.
+Evaluates talent using a thorough and consistent process.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overanalyzes and fails to get people into roles quickly enough to meet the needs of the business.
+May overlook slow starters and quiet, less expressive talent.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doesn’t understand how businesses work.
+Is not up-to-date on current and future policies, trends, and information affecting the organization.
+Is unaware of how strategies and tactics work in the marketplace.
+Doesn’t take business drivers into account when planning and executing own work.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Knows how businesses work and how organizations make money.
+Keeps up with current and possible future policies, practices, and trends in the organization, with the competition, and in the marketplace.
+Uses knowledge of business drivers and how strategies and tactics play out in the market to guide actions.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has an in-depth understanding of how businesses work and make money.
+Is the first to spot possible future policies, practices, and trends in the organization, with the competition, and in the marketplace.
+Consistently applies a business driver and marketplace focus when prioritizing actions.
+</t>
+  </si>
+  <si>
+    <t>Overdevelops or depends upon industry and business knowledge and skills at the expense of personal, interpersonal, managerial, and leadership skills.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overlooks opportunities to work collaboratively with others.
+Values own interests above others’.
+Shuts down lines of communication across groups.
+Prefers to work alone and be accountable for individual contributions.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Works cooperatively with others across the organization to achieve shared objectives.
+Represents own interests while being fair to others and their areas.
+Partners with others to get work done.
+Credits others for their contributions and accomplishments.
+Gains trust and support of others.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Models collaboration across the organization.
+Facilitates an open dialogue with a wide variety of contributors and stakeholders.
+Balances own interests with others’.
+Promotes high visibility of shared contributions to goals.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is overly consensus-driven and struggles to make decisions in a timely manner.
+Risks being perceived as lacking courage and failing to stand up for own beliefs.
+May be too accommodating.
+May prioritize collaboration at the expense of making tough decisions.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has difficulty communicating clear written and verbal messages.
+Tends to always communicate the same way without adjusting to diverse audiences.
+Doesn’t take the time to listen or understand others’ viewpoints.
+Doesn’t consistently share information others need to do their jobs.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is effective in a variety of communication settings: one-on-one, small and large groups, or among diverse styles and position levels.
+Attentively listens to others.
+Adjusts to fit the audience and the message.
+Provides timely and helpful information to others across the organization.
+Encourages the open expression of diverse ideas and opinions.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delivers messages in a clear, compelling, and concise manner.
+Actively listens and checks for understanding.
+Articulates messages in a way that is broadly understandable.
+Adjusts communication content and style to meet the needs of diverse stakeholders.
+Models and encourages the expression of diverse ideas and opinions.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May overinform, giving out information that isn’t helpful or harms productivity.
+May try to win with style and communication skills over fact and substance.
+May invest too much time crafting communications
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Misses the complexity of issues and force fits solutions.
+Doesn’t gather sufficient information to assess situations completely.
+Relies solely on intuition, even when contrary information exists.
+Is caught off guard when problems surface without an obvious solution.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asks the right questions to accurately analyze situations.
+Acquires data from multiple and diverse sources when solving problems.
+Uncovers root causes to difficult problems.
+Evaluates pros and cons, risks and benefits of different solution options.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Readily distinguishes between what’s relevant and what’s unimportant to make sense of complex situations.
+Looks beyond the obvious and doesn’t stop at the first answers.
+Analyzes multiple and diverse sources of information to define problems accurately before moving to solutions.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May tend toward analysis paralysis.
+May wait too long to come to a conclusion.
+May get caught up in the process and miss the big picture.
+May make things more complex than needed.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avoids conflict.
+Struggles to make progress when working through disagreements.
+Takes sides without digging deeply enough to fully understand the issues.
+Allows conflicts to cause massive disruption in the organization.
+Puts people on the defensive.
+May accommodate, wanting everyone to get along.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steps up to conflicts, seeing them as opportunities.
+Works out tough agreements and settles disputes equitably.
+Facilitates breakthroughs by integrating diverse views and finding common ground or acceptable alternatives.
+Settles differences in productive ways with minimum noise.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anticipates conflicts before they happen, based on knowledge of interpersonal and group dynamics.
+Asks questions and listens closely to all issues presented by stakeholders.
+Finds common ground and drives to consensus, ensuring that all feel heard.
+Defuses high-tension situations effectively.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May be seen as meddling in others’ issues.
+Is too eager to engage others in debate.
+Pushes for resolution before others are ready.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shies away from difficult issues or challenging assignments.
+Expresses point of view in an indirect manner.
+Avoids giving corrective feedback.
+Fails to take a stand on important issues.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Readily tackles tough assignments.
+Faces difficult issues and supports others who do the same.
+Provides direct and actionable feedback.
+Is willing to champion an idea or position despite dissent or political risk.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tackles difficult issues with optimism and confidence.
+Shares sensitive messages or unpopular points of view in a motivating manner.
+Lets people know where they stand, honestly and sensitively.
+Volunteers to tackle and lead tough assignments.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Struggles to identify which battles to take on and when to back down.
+Shares point of view on everything and could be seen as intimidating or a “know-it-all.”
+Communicates bluntly and fails to recognize the impact on relationships with others.
+Neglects own work in favor of getting involved in multiple difficult issues.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is unaware of customer expectations.
+Acts on incomplete or inaccurate understanding of customer needs.
+Conducts work activities from an internal, operational standpoint.
+Fails to build effective relationships with key customers.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gains insight into customer needs.
+Identifies opportunities that benefit the customer.
+Builds and delivers solutions that meet customer expectations.
+Establishes and maintains effective customer relationships.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anticipates customer needs and provides services that are beyond customer expectations.
+Uses customer insights to drive and guide the development of new offerings.
+Serves as a strategic partner to build, grow, and maintain profitable and long-lasting relationships with key accounts.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prioritizes information about customers over other important business realities.
+In the efforts to satisfy customers, takes liberties with the organization’s policies and procedures.
+Becomes too close to customers; makes promises to customers that the organization is unable to keep.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approaches decisions haphazardly or delays decision making.
+Makes decisions based on incomplete data or inaccurate assumptions.
+Ignores different points of view or makes decisions that impact short-term results at the expense of longer-term goals.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Makes sound decisions, even in the absence of complete information.
+Relies on a mixture of analysis, wisdom, experience, and judgment when making decisions.
+Considers all relevant factors and uses appropriate decision-making criteria and principles.
+Recognizes when a quick 80% solution will suffice.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decisively makes high-quality decisions, even when based on incomplete information or in the face of uncertainty.
+Actively seeks input from pertinent sources to make timely and well-informed decisions.
+Skillfully separates opinions from facts.
+Is respected by others for displaying superior judgment.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Applies an overly rigorous or methodological decision process to all issues, even where experience and intuition can work equally well.
+Is overly confident about own decision-making capability; reluctant to delegate decision making to others or hesitant to involve others when generating solutions.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doesn’t take time to work on development of others.
+Is a check-the-box developer; goes with the easiest option to fulfill talent development obligations.
+Doesn’t make use of available organization resources and systems to develop others.
+Has difficulty identifying developmental moves or assignments.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Places a high priority on developing others.
+Develops others through coaching, feedback, exposure, and stretch assignments.
+Aligns employee career development goals with organizational objectives.
+Encourages people to accept developmental moves.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Views talent development as an organizational imperative.
+Consistently uses multiple methods to develop others.
+Stays alert for developmental assignments both inside and outside own workgroup.
+Readily articulates the value and benefit of stretch assignments to others.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concentrates on the development of a few at the expense of many.
+Overestimates people’s capacity for growth.
+May be too quick to adopt faddish development approaches.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lacks awareness of other cultures.
+Treats everybody the same without regard to their differences.
+Expects everyone to adapt to his/her way of thinking and communicating.
+Lacks curiosity and interest in different people’s backgrounds and perspectives.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seeks to understand different perspectives and cultures.
+Contributes to a work climate where differences are valued and supported.
+Applies others’ diverse experiences, styles, backgrounds, and perspectives to get results.
+Is sensitive to cultural norms, expectations, and ways of communicating.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actively seeks out information about a wide variety of cultures and viewpoints.
+Promotes a team environment that values, encourages, and supports differences.
+Ensures that different experiences, styles, backgrounds, and perspectives are leveraged appropriately.
+Senses how differences will play out in terms of needs, values, and motivators.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May prioritize valuing difference over achieving results.
+May make too many allowances for members of a particular group.
+Is overly sensitive to different groups when delivering tough messages.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides incomplete, vague, or disorganized instructions.
+Delegates work to people without giving them sufficient guidance.
+Sets goals and objectives so easy to achieve that people are demotivated in the process.
+Saves high-profile tasks for self.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides clear direction and accountabilities.
+Delegates and distributes assignments and decisions appropriately.
+Monitors progress by maintaining dialogue on work and results.
+Provides appropriate guidance and direction based on people’s capabilities.
+Intervenes as needed to remove obstacles.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masterfully matches people to assignments.
+Conveys clear performance expectations and follows up consistently.
+Sets stretch goals and objectives, pushing individuals or teams to perform at higher levels.
+Delegates work in a way that empowers ownership.
+Tracks how work is progressing without meddling.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May be overly directive and stifle creativity and initiative.
+Pushes people too hard by asking them to work at their upper limits.
+May overdelegate without providing enough direction or help.
+Gives people authority that they shouldn’t have.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has little insight into what motivates others.
+Doesn’t give people enough flexibility and autonomy to do their work.
+Does little to create enthusiasm.
+Is unwilling to share ownership and give up control of assignments.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Structures the work so it aligns with people’s goals and motivators.
+Empowers others.
+Makes each person feel his/her contributions are important.
+Invites input and shares ownership and visibility.
+Shows a clear connection between people’s motivators and the organizational goals.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creates a positive and motivating working environment.
+Knows what motivates different people and aligns work accordingly.
+Gives others appropriate latitude to get work done.
+Invites input from others.
+Makes people feel that their contributions are visible and valued.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May accommodate others’ motivators at the expense of getting needed work done.
+May empower beyond people’s capacity.
+May avoid giving constructive feedback if it could negatively impact engagement.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is unfamiliar with financial terms.
+Is unclear about the cause-and-effect relationships among different business functions and overall financial performance.
+Pays little attention to financial impact when drawing conclusions.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Understands the meaning and implications of key financial indicators.
+Uses financial analysis to generate, evaluate, and act on strategic options and opportunities.
+Integrates quantitative and qualitative information to draw accurate conclusions.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transforms financial information into business intelligence through analysis and integration of quantitative and qualitative information.
+Identifies and monitors key financial indicators to gauge performance, identify trends, and suggest strategies that can impact results.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uses financial indicators as the only decision criteria, leading to an unbalanced view of organizational performance that is narrowly focused on financial outcomes.
+May sacrifice long-term business objectives for short-term financial gains.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is narrow in thinking when solving problems.
+Seldom comes up with multiple options or scenarios when addressing global issues.
+Maintains a home region or local-only perspective.
+Focuses on the here and now; shows little interest in the future or global issues.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Looks toward the broadest possible view of an issue or challenge.
+Thinks and talks in global terms.
+Understands the position of the organization within a global context.
+Knows the impact of global trends on the organization.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Considers multiple and varied viewpoints when addressing problems and opportunities.
+Thinks globally; excels at viewing issues on a worldwide basis.
+Develops scenarios to deal with the global uncertainties the organization faces.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has a tendency to overreach or to call upon experience that doesn’t apply to the current situation.
+Minimizes local needs, overemphasizing global issues.
+Pushes for opportunities on a global scale that the organization is not prepared for.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stays within comfort zone rather than experimenting with new ways of looking at things.
+Presents ideas that are ordinary, conventional, and from the past.
+Tends to be critical of others’ original ideas.
+Has a style that discourages the creative initiatives of others.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comes up with useful ideas that are new, better, or unique.
+Introduces new ways of looking at problems.
+Can take a creative idea and put it into practice.
+Encourages diverse thinking to promote and nurture innovation.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moves beyond traditional ways of doing things; pushes past the status quo.
+Continually assesses the market potential of an innovative idea or solution.
+Finds and champions the best creative ideas and actively moves them into implementation.
+Tries multiple, varied approaches to innovative ideas.
+Builds excitement in others to explore creative options.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gravitates toward the new and rejects the old.
+Comes up with so many unusual ideas that it overwhelms others.
+Expends too much time and effort looking at creative alternatives instead of taking action.
+Relentlessly pursues change and innovation at the cost of efficiency and reliability.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Builds few relationships.
+Engages with people in immediate work area only.
+Is uncomfortable when interacting with people different from self.
+Expresses points of view in a blunt or insensitive manner.
+Shows little interest in others’ needs.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relates comfortably with people across levels, functions, culture, and geography.
+Acts with diplomacy and tact.
+Builds rapport in an open, friendly, and accepting way.
+Builds constructive relationships with people both similar and different to self.
+Picks up on interpersonal and group dynamics.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proactively develops relationships with a wide variety of people.
+Builds immediate rapport, even when facing difficult or tense situations.
+Understands interpersonal and group dynamics and reacts in an effective manner.
+Engages input from others constantly and listens with empathy and concern.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is focused on understanding group and interpersonal dynamics at the expense of getting results.
+Makes ineffective decisions due to a strong need to be liked.
+May be seen as lacking authenticity.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Builds limited relationships with different groups.
+Has difficulty determining who to contact for resources or knowledge.
+Doesn’t tap into networks beyond own immediate area to exchange ideas or get things done.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Builds strong formal and informal networks.
+Maintains relationships across a variety of functions and locations.
+Draws upon multiple relationships to exchange ideas, resources, and know-how.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consults with a wide network of internal and external connections.
+Connects the right people to accomplish goals.
+Works through formal and informal channels to build broad-based relationships and support.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relies on networking at the expense of other skills and work priorities.
+May be perceived as a one-sided networker, using networks solely for own advantage.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Struggles to learn in new situations.
+Becomes frustrated or confused by unfamiliar tasks.
+Gives up on new ideas too soon.
+Resists taking a chance on untested solutions.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learns quickly when facing new situations.
+Experiments to find new solutions.
+Takes on the challenge of unfamiliar tasks.
+Extracts lessons learned from failures and mistakes.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tries multiple times using multiple methods to find the right solution.
+Views mistakes as opportunities to learn.
+Enjoys the challenge of unfamiliar tasks.
+Seeks new approaches to solve problems.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Takes on new challenges for the sake of it rather than in the interest of making a positive impact.
+Focuses on unvetted ideas simply because they are new.
+May take unnecessary risks in the name of learning.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overlooks or disregards the political complexities of the organization.
+Pursues own area’s goals without considering the impact on other groups.
+Says and does things that strain organizational relationships.
+Tends to be impatient with organizational processes and makes political errors.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is sensitive to how people and organizations function.
+Anticipates land mines and plans approach accordingly.
+Deals comfortably with organizational politics.
+Knows who has power, respect, and influence.
+Steers through the organizational maze to get things done.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navigates the political complexities of the organization easily.
+Has a clear understanding of other groups’ business priorities.
+Avoids provoking tension between groups.
+Uses knowledge of organizational culture to achieve objectives.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May prioritize organizational positioning, even when straightforward action is called for.
+May be seen as excessively political.
+May tell others what they want to hear instead of what he/she knows to be true.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pushes own point of view too strongly.
+Fails to win support or buy-in from others.
+Is unable to negotiate solutions that are agreeable to all.
+Responds negatively to the reactions and positions of others.
+Has difficulty articulating a logical argument that supports own position.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Positions views and arguments appropriately to win support.
+Convinces others to take action.
+Negotiates skillfully in tough situations.
+Wins concessions without damaging relationships.
+Responds effectively to the reactions and positions of others.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shares own ideas in a compelling manner that gains commitment from others.
+Negotiates skillfully and creates minimal noise when working toward an agreed-upon solution.
+Finds common ground and acceptable alternatives that satisfy the needs of multiple stakeholders.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attempts to negotiate when the situation calls for tough and decisive action.
+Spends so much time persuading that timely results are missed.
+May come across as manipulative.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gets caught up in immediate needs without attending to larger priorities.
+Spends time and resources without a clear purpose.
+Gets caught off guard by problems due to the lack of contingency plans.
+Haphazardly tracks progress or performance.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sets objectives to align with broader organizational goals.
+Breaks down objectives into appropriate initiatives and actions.
+Stages activities with relevant milestones and schedules.
+Anticipates and adjusts effective contingency plans.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Focuses on highest priorities and sets aside less critical tasks.
+Lays out a thorough schedule and steps for achieving objectives.
+Makes implementation plans that allocate resources precisely.
+Looks for obstacles and develops excellent contingency plans.
+Uses milestones to diligently track and manage the progress of the work.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is so focused on completing only mission-critical tasks that he/she lets the trivial many accumulate into a critical problem.
+Persistently follows plans, allowing little room for change.
+May leave out the human element of the work.
+Spends an inordinate amount of time planning for unlikely obstacles or roadblocks.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gets easily rattled in high-pressure situations.
+Exhibits low energy and motivation during times of stress and worry.
+Acts defensively when faced with criticism or roadblocks.
+Takes too long to recover from setbacks.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is confident under pressure.
+Handles and manages crises effectively.
+Maintains a positive attitude despite adversity.
+Bounces back from setbacks.
+Grows from hardships and negative experiences.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stays focused and composed in stressful situations.
+Maintains a positive attitude and forward-thinking approach despite troubling circumstances or setbacks.
+Takes constructive action to navigate difficulties or obstacles.
+Is viewed as a source of confidence in high-stress situations.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is unreasonably confident and optimistic; could miss the early signs of trouble.
+Fails to show emotion in appropriate circumstances; comes across as cold and uncaring.
+May allow stress to pile up, risking burnout.
+Minimizes the implications or severity of the situation.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has difficulty figuring out where to get resources.
+Relies on the same resources over and over.
+Gets frustrated and becomes inefficient when things don’t go as planned.
+Tries to impose one way of doing things; doesn’t adjust swiftly enough.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marshals resources (people, funding, material, support) to get things done.
+Orchestrates multiple activities simultaneously to accomplish a goal.
+Gets the most out of limited resources.
+Applies knowledge of internal structures, processes, and culture to resourcing efforts.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gets the most out of available resources and secures rare resources others can’t get.
+Adapts quickly to changing resource requirements.
+Enjoys multi-tasking; applies knowledge of the organization to advance multiple objectives.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stretches available resources beyond capacity.
+Hoards resources from others.
+Sometimes gathers resources too far ahead of time or obtains excess resources.
+Diverts too quickly from planned approach when something unexpected happens.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is reluctant to push for results.
+Does the least to get by.
+Is an inconsistent performer.
+Gives up easily; doesn’t go back with different strategies for the third and fourth try.
+Often misses deadlines.
+Procrastinates around whatever gets in the way.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has a strong bottom-line orientation.
+Persists in accomplishing objectives despite obstacles and setbacks.
+Has a track record of exceeding goals successfully.
+Pushes self and helps others achieve results.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sets aggressive goals and has high standards.
+Is consistently one of the top performers.
+Pursues everything with energy, drive, and the need to finish.
+Persists in the face of challenges and setbacks.
+Always keeps the end in sight; puts in extra effort to meet deadlines.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goes for results at all costs without appropriate concern for people, teams, due process, or possibly norms and ethics.
+May be so deadline oriented that he/she pushes to get something done rather than taking the time to do it right.
+Even in the face of near insurmountable obstacles, sticks with the effort beyond reason.
+Puts too much pressure on self and others to achieve the impossible.
+May not celebrate and share successes.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doesn’t reflect on past mistakes.
+Acts defensively when given feedback.
+Is unaware of own skills and interpersonal impact.
+Makes excuses and blames others.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reflects on activities and impact on others.
+Proactively seeks feedback without being defensive.
+Is open to criticism and talking about shortcomings.
+Admits mistakes and gains insight from experiences.
+Knows strengths, weaknesses, opportunities, and limits.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seeks and acts on feedback from a wide variety of people.
+Willingly admits and takes responsibility for mistakes and shortcomings.
+Views criticism as helpful.
+Can articulate the causes behind own feelings and moods.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overthinks or overanalyzes feedback from others.
+May be self-critical to the point of risking credibility and appearing insecure.
+Spends too much time on building self-insight and not enough time on making meaningful changes to behavior or skills.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doesn’t put in the effort to grow and change.
+Is comfortable with current skills.
+Is fearful of making mistakes that accompany development.
+Lacks awareness or interest in using available developmental resources.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shows personal commitment and takes action to continuously improve.
+Accepts assignments that broaden capabilities.
+Learns from new experiences, from others, and from structured learning.
+Makes the most of available development resources.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Takes consistent action to develop new skills.
+Finds ways to apply strengths to new issues.
+Is aware of the skills needed to be successful in different situations and levels.
+Seeks assignments that stretch him/her beyond comfort zone.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Develops just for the sake of development, without focus or objective.
+Focuses on own development at the expense of meeting other obligations.
+May be susceptible to the latest self-help fads.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uses same style and approach regardless of the situation.
+Fails to notice changing situational demands.
+Expects others to adjust to his/her preferred style and approach.
+Thinks being true to self is all that matters.
+Doesn’t take time to understand interpersonal dynamics.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Picks up on situational cues and adjusts in the moment.
+Readily adapts personal, interpersonal, and leadership behavior.
+Understands that different situations may call for different approaches.
+Can act differently depending on the circumstances.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Picks up on the need to change personal, interpersonal, and leadership behavior quickly.
+Observes situational and group dynamics and selects best-fit approach.
+Seamlessly adapts style to fit the specific needs of others.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May be seen as a social chameleon, leaving others unsure of when he/she is being genuine.
+Is hypervigilant in monitoring situational dynamics to the point that the desired outcome isn’t met; may come across as indecisive or wavering.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Focuses on meeting current expectations and needs of a limited number of stakeholders.
+Considers some stakeholders’ interests more strongly than others’.
+Allows conflicting stakeholder demands to unfairly influence actions.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Understands internal and external stakeholder requirements, expectations, and needs.
+Balances the interests of multiple stakeholders.
+Considers cultural and ethical factors in the decision-making process.
+Acts fairly despite conflicting demands of stakeholders.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maintains frequent interactions with a broad stakeholder network.
+Takes a proactive approach to shape and influence stakeholder expectations.
+Serves as a liaison between different stakeholder groups.
+Effectively aligns the interests of multiple, diverse stakeholders.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spends too much time interacting with stakeholders, slowing down decision making.
+Is too focused on clarifying stakeholder needs and building consensus among stakeholders when others are looking for clear direction on day-to-day business matters.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is more comfortable in the tactical here and now.
+Spends little time or effort thinking about or working on strategic issues.
+Contributes little to strategic discussions.
+Lacks the disciplined thought processes to pull together varying elements into a coherent view.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anticipates future trends and implications accurately.
+Readily poses future scenarios.
+Articulates credible pictures and visions of possibilities that will create sustainable value.
+Creates competitive and breakthrough strategies that show a clear connection between vision and action.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sees the big picture, constantly imagines future scenarios, and creates strategies to sustain competitive advantage.
+Is a visionary and able to articulately paint credible pictures and visions of possibilities and likelihoods.
+Formulates a clear strategy and maps the aggressive steps that will clearly accelerate the organization toward its strategic goals.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May be seen as too theoretical.
+May be so far ahead that others have trouble seeing how the organization will get from here to there.
+May be impatient with day-to-day tactical issues.
+May overcomplicate plans.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doesn’t create a common mindset or challenge.
+Fails to recognize that morale, recognition, and belongingness are integral ingredients of effective teams.
+Prioritizes and rewards individual efforts rather than team achievements.
+Doesn’t shape and distribute assignments in a way that encourages teamwork.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forms teams with appropriate and diverse mix of styles, perspectives, and experience.
+Establishes common objectives and a shared mindset.
+Creates a feeling of belonging and strong team morale.
+Shares wins and rewards team efforts.
+Fosters open dialogue and collaboration among the team.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defines success in terms of the whole team.
+Recognizes that leveraging each team member’s unique background and perspective is critical to achieving team goals.
+Rallies others behind common team goals.
+Places team goals ahead of own goals.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May focus so much on teaming behavior that results may suffer.
+May build such a strong sense of team identity that it is hard for new members to break in and get up to speed.
+May not develop individual leaders.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is inexperienced with key technology tools or too comfortable with existing applications to willingly adopt new technologies.
+Fails to seek out new or innovative technologies that could add business value.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anticipates the impact of emerging technologies and makes adjustments.
+Scans the environment for new technical skills, knowledge, or capabilities that can benefit business or personal performance.
+Rejects low-impact or fad technologies.
+Readily learns and adopts new technologies.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Continually scans the environment for technology breakthroughs.
+Experiments with a wide range of existing technologies while applying new and emerging options that can enhance organizational outcomes.
+Encourages others to learn and adopt new technologies.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Focuses too much on learning new technology or exploring technology applications rather than applying it effectively to meet business goals.
+Overlooks when others may not have the same level of tech savvy.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lacks consistent follow-through on commitments.
+Betrays confidences and covers up mistakes.
+Misrepresents facts for personal gain.
+Has trouble keeping confidences.
+Makes promises but doesn’t always keep them.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Follows through on commitments.
+Is seen as direct and truthful.
+Keeps confidences.
+Practices what he/she preaches.
+Shows consistency between words and actions.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gains the confidence and trust of others easily.
+Honors commitments and keeps confidences.
+Expresses self in a credible and transparent manner.
+Models high standards of honesty and integrity.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May push openness and honesty to the point of being disruptive.
+May come across as overly judgmental of those not quite as overtly authentic.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fails to personally connect with the organization’s vision.
+Has difficulty describing the vision in a compelling way.
+Can’t simplify enough to help people understand complex strategy.
+Struggles to energize and build excitement in others.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talks about future possibilities in a positive way.
+Creates milestones and symbols to rally support behind the vision.
+Articulates the vision in a way everyone can relate to.
+Creates organization-wide energy and optimism for the future.
+Shows personal commitment to the vision.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Articulates a compelling, inspired, and relatable vision.
+Communicates the vision with a sense of purpose about the future.
+Makes the vision sharable by everyone.
+Instills and sustains organization-wide energy for what is possible.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May lack follow-through to execute the vision.
+Communicates at a high level too often.
+May lack patience when others don’t share the same vision and sense of purpose.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Works in a disorganized fashion.
+Has difficulty figuring out effective and efficient processes to get things done.
+Accepts processes as they are; pays little attention to process improvement.
+Doesn’t take advantage of opportunities for synergy and efficiency.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifies and creates the processes necessary to get work done.
+Separates and combines activities into efficient workflow.
+Designs processes and procedures that allow managing from a distance.
+Seeks ways to improve processes, from small tweaks to complete reengineering.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Figures out the processes necessary to get things done.
+Separates and combines tasks into efficient and simple workflow.
+Thinks about the whole system.
+Focuses efforts on continuous improvement; has a knack for identifying and seizing opportunities for synergy and integration.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May have trouble explaining to others how processes work.
+May attempt to put too much together at once.
+Oversimplifies processes.
+Tinkers with processes that are working sufficiently well already.
+Is so focused on efficiency that the human element of the work is left out.
+</t>
   </si>
 </sst>
 </file>
@@ -1081,7 +2126,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1148,6 +2193,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1464,11 +2512,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:P39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1476,12 +2524,13 @@
     <col min="1" max="1" width="8.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="30" style="1" customWidth="1"/>
     <col min="3" max="5" width="49.28515625" style="3" customWidth="1"/>
-    <col min="6" max="8" width="26.85546875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="26.85546875" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="8.7109375" style="1"/>
+    <col min="6" max="9" width="72.5703125" style="1" customWidth="1"/>
+    <col min="10" max="12" width="26.85546875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="26.85546875" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>58</v>
       </c>
@@ -1497,26 +2546,32 @@
       <c r="E1" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="J1" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
     </row>
-    <row r="2" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1532,18 +2587,30 @@
       <c r="E2" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="I2" s="13"/>
+      <c r="M2" s="13"/>
     </row>
-    <row r="3" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1559,16 +2626,28 @@
       <c r="E3" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="J3" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="K3" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="13"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="13"/>
     </row>
-    <row r="4" spans="1:16" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1584,16 +2663,28 @@
       <c r="E4" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="J4" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="K4" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="13"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="13"/>
     </row>
-    <row r="5" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1609,20 +2700,32 @@
       <c r="E5" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="J5" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="K5" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="L5" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="M5" s="10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1638,17 +2741,28 @@
       <c r="E6" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="J6" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="K6" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="9"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="13"/>
     </row>
-    <row r="7" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1664,16 +2778,28 @@
       <c r="E7" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="J7" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="K7" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="13"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="13"/>
     </row>
-    <row r="8" spans="1:16" ht="120" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1689,20 +2815,32 @@
       <c r="E8" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="J8" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="K8" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="L8" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="M8" s="10" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="105" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1718,18 +2856,30 @@
       <c r="E9" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="J9" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="K9" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="L9" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="I9" s="10"/>
+      <c r="M9" s="10"/>
     </row>
-    <row r="10" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1745,16 +2895,28 @@
       <c r="E10" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="J10" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="K10" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="13"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="13"/>
     </row>
-    <row r="11" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1770,16 +2932,28 @@
       <c r="E11" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="J11" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="K11" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="13"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="13"/>
     </row>
-    <row r="12" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1795,18 +2969,30 @@
       <c r="E12" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="L12" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="I12" s="13"/>
+      <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="1:16" ht="105" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -1822,18 +3008,30 @@
       <c r="E13" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="J13" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="K13" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="L13" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="I13" s="13"/>
+      <c r="M13" s="13"/>
     </row>
-    <row r="14" spans="1:16" ht="105" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -1849,18 +3047,30 @@
       <c r="E14" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="J14" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="K14" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="L14" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="I14" s="13"/>
+      <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="1:16" ht="135" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -1876,18 +3086,30 @@
       <c r="E15" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="I15" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="J15" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="K15" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="L15" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="I15" s="13"/>
+      <c r="M15" s="13"/>
     </row>
-    <row r="16" spans="1:16" ht="135" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -1903,18 +3125,30 @@
       <c r="E16" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="J16" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="K16" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="L16" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="I16" s="13"/>
+      <c r="M16" s="13"/>
     </row>
-    <row r="17" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -1930,18 +3164,30 @@
       <c r="E17" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="J17" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="K17" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="L17" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="I17" s="13"/>
+      <c r="M17" s="13"/>
     </row>
-    <row r="18" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -1957,18 +3203,30 @@
       <c r="E18" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="I18" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="J18" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="K18" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="L18" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="I18" s="13"/>
+      <c r="M18" s="13"/>
     </row>
-    <row r="19" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -1984,16 +3242,28 @@
       <c r="E19" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="I19" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="J19" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="K19" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="13"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="13"/>
     </row>
-    <row r="20" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -2009,20 +3279,32 @@
       <c r="E20" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="I20" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="J20" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="K20" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="H20" s="15" t="s">
+      <c r="L20" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="I20" s="10" t="s">
+      <c r="M20" s="10" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -2038,18 +3320,30 @@
       <c r="E21" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="I21" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="J21" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="K21" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="L21" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="I21" s="13"/>
+      <c r="M21" s="13"/>
     </row>
-    <row r="22" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -2065,16 +3359,28 @@
       <c r="E22" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="I22" s="23" t="s">
+        <v>292</v>
+      </c>
+      <c r="J22" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="K22" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="H22" s="2"/>
-      <c r="I22" s="13"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="13"/>
     </row>
-    <row r="23" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -2090,18 +3396,30 @@
       <c r="E23" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="H23" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="I23" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="J23" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="K23" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="L23" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="I23" s="13"/>
+      <c r="M23" s="13"/>
     </row>
-    <row r="24" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -2117,18 +3435,30 @@
       <c r="E24" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="H24" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="I24" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="J24" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="K24" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="H24" s="8" t="s">
+      <c r="L24" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="I24" s="13"/>
+      <c r="M24" s="13"/>
     </row>
-    <row r="25" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -2144,20 +3474,32 @@
       <c r="E25" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>302</v>
+      </c>
+      <c r="H25" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="I25" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="J25" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="K25" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="H25" s="8" t="s">
+      <c r="L25" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="I25" s="10" t="s">
+      <c r="M25" s="10" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -2173,20 +3515,32 @@
       <c r="E26" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="G26" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="H26" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="I26" s="23" t="s">
+        <v>308</v>
+      </c>
+      <c r="J26" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="K26" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="H26" s="8" t="s">
+      <c r="L26" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="I26" s="10" t="s">
+      <c r="M26" s="10" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -2202,16 +3556,28 @@
       <c r="E27" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="23" t="s">
+        <v>309</v>
+      </c>
+      <c r="G27" s="23" t="s">
+        <v>310</v>
+      </c>
+      <c r="H27" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="I27" s="23" t="s">
+        <v>312</v>
+      </c>
+      <c r="J27" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="K27" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="H27" s="8"/>
-      <c r="I27" s="13"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="13"/>
     </row>
-    <row r="28" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -2227,16 +3593,28 @@
       <c r="E28" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="23" t="s">
+        <v>313</v>
+      </c>
+      <c r="G28" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="H28" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="I28" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="J28" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="K28" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="H28" s="8"/>
-      <c r="I28" s="13"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="13"/>
     </row>
-    <row r="29" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -2252,18 +3630,30 @@
       <c r="E29" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="G29" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="H29" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="I29" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="J29" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="G29" s="8" t="s">
+      <c r="K29" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="H29" s="18" t="s">
+      <c r="L29" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="I29" s="13"/>
+      <c r="M29" s="13"/>
     </row>
-    <row r="30" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -2279,16 +3669,28 @@
       <c r="E30" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="F30" s="22" t="s">
+      <c r="F30" s="23" t="s">
+        <v>321</v>
+      </c>
+      <c r="G30" s="23" t="s">
+        <v>322</v>
+      </c>
+      <c r="H30" s="23" t="s">
+        <v>323</v>
+      </c>
+      <c r="I30" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="J30" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="G30" s="21" t="s">
+      <c r="K30" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="H30" s="2"/>
-      <c r="I30" s="13"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="13"/>
     </row>
-    <row r="31" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -2304,18 +3706,30 @@
       <c r="E31" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="G31" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="H31" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="I31" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="J31" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="K31" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="L31" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I31" s="13"/>
+      <c r="M31" s="13"/>
     </row>
-    <row r="32" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -2331,16 +3745,28 @@
       <c r="E32" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="F32" s="21" t="s">
+      <c r="F32" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="G32" s="23" t="s">
+        <v>330</v>
+      </c>
+      <c r="H32" s="23" t="s">
+        <v>331</v>
+      </c>
+      <c r="I32" s="23" t="s">
+        <v>332</v>
+      </c>
+      <c r="J32" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="G32" s="22" t="s">
+      <c r="K32" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="H32" s="2"/>
-      <c r="I32" s="13"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="13"/>
     </row>
-    <row r="33" spans="1:9" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -2356,16 +3782,28 @@
       <c r="E33" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="F33" s="22" t="s">
+      <c r="F33" s="23" t="s">
+        <v>333</v>
+      </c>
+      <c r="G33" s="23" t="s">
+        <v>334</v>
+      </c>
+      <c r="H33" s="23" t="s">
+        <v>335</v>
+      </c>
+      <c r="I33" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="J33" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="G33" s="22" t="s">
+      <c r="K33" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="H33" s="2"/>
-      <c r="I33" s="13"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="13"/>
     </row>
-    <row r="34" spans="1:9" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -2381,16 +3819,28 @@
       <c r="E34" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="F34" s="19" t="s">
+      <c r="F34" s="23" t="s">
+        <v>337</v>
+      </c>
+      <c r="G34" s="23" t="s">
+        <v>338</v>
+      </c>
+      <c r="H34" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="I34" s="23" t="s">
+        <v>340</v>
+      </c>
+      <c r="J34" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="G34" s="19" t="s">
+      <c r="K34" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="13"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="13"/>
     </row>
-    <row r="35" spans="1:9" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -2406,18 +3856,30 @@
       <c r="E35" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="F35" s="20" t="s">
+      <c r="F35" s="23" t="s">
+        <v>341</v>
+      </c>
+      <c r="G35" s="23" t="s">
+        <v>342</v>
+      </c>
+      <c r="H35" s="23" t="s">
+        <v>343</v>
+      </c>
+      <c r="I35" s="23" t="s">
+        <v>344</v>
+      </c>
+      <c r="J35" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="G35" s="20" t="s">
+      <c r="K35" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="H35" s="20" t="s">
+      <c r="L35" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="I35" s="13"/>
+      <c r="M35" s="13"/>
     </row>
-    <row r="36" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -2433,16 +3895,28 @@
       <c r="E36" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="F36" s="19" t="s">
+      <c r="F36" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="G36" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="H36" s="23" t="s">
+        <v>347</v>
+      </c>
+      <c r="I36" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="J36" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="G36" s="19" t="s">
+      <c r="K36" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="H36" s="2"/>
-      <c r="I36" s="13"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="13"/>
     </row>
-    <row r="37" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -2458,18 +3932,30 @@
       <c r="E37" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="F37" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="G37" s="23" t="s">
+        <v>350</v>
+      </c>
+      <c r="H37" s="23" t="s">
+        <v>351</v>
+      </c>
+      <c r="I37" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="J37" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="G37" s="8" t="s">
+      <c r="K37" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="H37" s="8" t="s">
+      <c r="L37" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="I37" s="13"/>
+      <c r="M37" s="13"/>
     </row>
-    <row r="38" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -2485,18 +3971,30 @@
       <c r="E38" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="F38" s="8" t="s">
+      <c r="F38" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="G38" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="H38" s="23" t="s">
+        <v>355</v>
+      </c>
+      <c r="I38" s="23" t="s">
+        <v>356</v>
+      </c>
+      <c r="J38" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="G38" s="8" t="s">
+      <c r="K38" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="H38" s="8" t="s">
+      <c r="L38" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="I38" s="13"/>
+      <c r="M38" s="13"/>
     </row>
-    <row r="39" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -2512,16 +4010,28 @@
       <c r="E39" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="F39" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="G39" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="H39" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="I39" s="23" t="s">
+        <v>360</v>
+      </c>
+      <c r="J39" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="G39" s="8" t="s">
+      <c r="K39" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="H39" s="8" t="s">
+      <c r="L39" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="I39" s="13"/>
+      <c r="M39" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/KFLA/data.xlsx
+++ b/KFLA/data.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kodnetas\KFLA\KFLA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9437B7-A10B-46B6-82DA-0912505B9A2C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A29277C-CFA4-4E8E-8D36-A23309B71152}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="28800" windowHeight="10725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="38 competency questions" sheetId="2" r:id="rId1"/>
+    <sheet name="stalkers and stopper" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="399">
   <si>
     <t>Competency Name</t>
   </si>
@@ -584,6 +585,1506 @@
     <t>Provide an example of when you needed to solve a new problem.  What approach did you take and what was the result?</t>
   </si>
   <si>
+    <t xml:space="preserve">Explain a time where you had to navigate through a sentiative situation in your organization. (for example competing priorities amoung groups).  What was the process you used and what was the result? </t>
+  </si>
+  <si>
+    <t>Give me an example when you anticipated something would change in the market that would impact impact your organization.  What was that change and how did you navigate through it?</t>
+  </si>
+  <si>
+    <t>Provide an example where you navigated through cultural differences to achieve the   objectives of a project? Did you achieve the result as anticipated?</t>
+  </si>
+  <si>
+    <t>Tell me a time when you had a plan for a project and your boss or team did not buy-in.  How did you proceed and complete your original objective.  What was the result?</t>
+  </si>
+  <si>
+    <t>Give me an example when you convinced management or a different team of your business idea when they were originally not on board. What was your process and how long did it take?</t>
+  </si>
+  <si>
+    <t>Explain a time when you had a difficult situation to come to a conclusion - how did you negotiate with the members of the project team to come to a successful business outcome?</t>
+  </si>
+  <si>
+    <t>Tell me a time when you had to negotiate with a customer when a change was required or requested.</t>
+  </si>
+  <si>
+    <t>Tell me about a time when your intergrety, honesty and authenticy was doubted or put to the test what did you do to change this?</t>
+  </si>
+  <si>
+    <t>Tell me about a time you expereinced unethical behavior at work, how did you handle the situation?</t>
+  </si>
+  <si>
+    <t>Tell me about a time you were able to gain trust and confidence with others?</t>
+  </si>
+  <si>
+    <t>Tell me about a time when your group experienced low moral as a result of the organization, how did you drive the purpose of the change and improve moral?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exaplain a time when you had to communicate a vision with a sense of purpose about the future to motivate others to action. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tell me about a time where you had to explain a complex vision to different levels, how did you do it and how was the message received. </t>
+  </si>
+  <si>
+    <t>Explain a time when you needed to pick a process that would best suit a sitation?</t>
+  </si>
+  <si>
+    <t>Tell me about a time you simplifed a complex process to save time and be more effective.</t>
+  </si>
+  <si>
+    <t>Tell me about a project that you worked on that you were able to give insite on process to help improve it.</t>
+  </si>
+  <si>
+    <t>Provide an example when you had to change your priorities due to business conditions or change in management direction.  How did you manage through this and were you successful?</t>
+  </si>
+  <si>
+    <t>Give me an example when you were leading a project and you had to define the resources that you needed.  Did you get all the resources required to complete the project as expected?  If you didn't, how did you manage?</t>
+  </si>
+  <si>
+    <t>Explain when you encountered obstacles to your project or work.  What were they, how did you overcome and what was the end result?</t>
+  </si>
+  <si>
+    <t>Provide an example when you managed a (large, medium or small-scale) project. What was your implementation plan?  Did you achieve the results on time and within budget?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explain a time when you had a stresfull situation and you stayed focus. </t>
+  </si>
+  <si>
+    <t>Explain a time when you had a stresfull situation which impacted you. How did you recover?</t>
+  </si>
+  <si>
+    <t>Explain a time when you had to use different or new reources to reach the result.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provide an example how you quickly adapted to changing resource requirements. </t>
+  </si>
+  <si>
+    <t>Tell me about a time when you got results when others tried and failed.</t>
+  </si>
+  <si>
+    <t>Tell me about a time you got results even though some major factor changed such as a budget cut, competitor moves, or the market changed.</t>
+  </si>
+  <si>
+    <t>Tell me about a time when you got results against the odds.</t>
+  </si>
+  <si>
+    <t>Describe a situation when you created a strategy to susatin competitive advantage? How did you do it? What was the result?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Give an example of a time when you formulated a strategy and defined the follow up steps to achieve organization strategic goals? </t>
+  </si>
+  <si>
+    <t>Describe a time when you placed team goals ahead of your own goals? How did you achieve it? And what was the result?</t>
+  </si>
+  <si>
+    <t>Explain a time when you lead a diversified team in order to achieve a goal. What actions did you take? What was the outcome?</t>
+  </si>
+  <si>
+    <t>Tell me about a time when you defined criterial of success in terms of the whole team?</t>
+  </si>
+  <si>
+    <t>Describe a situation when a project that you worked on failed. What was your part in the failure. What actions did you take to turn the project around and make it a success</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tell me about a time that you had negative feedback during your yearly review. How did you use this feedback to improve your proformance and what the result. </t>
+  </si>
+  <si>
+    <t>Tell me the most successful experience when the team experienced high turnover during the project. How did you adapt your style to meet the changing needs of the team.</t>
+  </si>
+  <si>
+    <t>Tell me about a project that you led. How did you assess each team members strengths and weakness so that they can be best leveraged to ensure the project's success.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Describe a large scale project that you particpated in. The stakeholders were diverse both in terms of locations, goals and language. Explain how you ensured that everyone was kept informed at all times both in terms of content, frequency and methods of communication. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tell me about a project when there were multiple stakeholders with a variety of needs and goals. How did you bring them together to ensure all needs were met. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tell us a time when you  looked to be posted in new technology breakthroughs in the market. </t>
+  </si>
+  <si>
+    <t>Explain a moment when you encouraged other associates to learn and adopt new technologies?</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Cluster</t>
+  </si>
+  <si>
+    <t>Factor I: Thought</t>
+  </si>
+  <si>
+    <t>Factor II: Results</t>
+  </si>
+  <si>
+    <t>Factor III: People</t>
+  </si>
+  <si>
+    <t>Factor IV: Self</t>
+  </si>
+  <si>
+    <t>Cluster L - Being Flexible and Adaptable</t>
+  </si>
+  <si>
+    <t>Cluster K - Being Open</t>
+  </si>
+  <si>
+    <t>Cluster J - Being Authentic</t>
+  </si>
+  <si>
+    <t>Cluster I - Influencing people</t>
+  </si>
+  <si>
+    <t>Cluster H - Optimizing Diverse Talent</t>
+  </si>
+  <si>
+    <t>Cluster G - Building Collaborative Relationships</t>
+  </si>
+  <si>
+    <t>Cluster F- Focusing on performance</t>
+  </si>
+  <si>
+    <t>Cluster E -Managing Execution</t>
+  </si>
+  <si>
+    <t>Cluster D - Taking Initiative</t>
+  </si>
+  <si>
+    <t>Cluster C - Creating the New and Different</t>
+  </si>
+  <si>
+    <t>Cluster B - Making Complex Decisions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cluster A - Understanding the Business	</t>
+  </si>
+  <si>
+    <t>LESS SKILLED</t>
+  </si>
+  <si>
+    <t>SKILLED</t>
+  </si>
+  <si>
+    <t>TALENTED</t>
+  </si>
+  <si>
+    <t>OVERUSED SKILL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fails to accept a fair share of personal responsibility.
+Gathers little information about how things are going.
+Provides inadequate feedback; fails to help others adjust course midstream.
+Prefers to be one of many accountable for an assignment.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Follows through on commitments and makes sure others do the same.
+Acts with a clear sense of ownership.
+Takes personal responsibility for decisions, actions, and failures.
+Establishes clear responsibilities and processes for monitoring work and measuring results.
+Designs feedback loops into work.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assumes responsibility for the outcomes of others.
+Promotes a sense of urgency and establishes and enforces individual accountability in the team.
+Works with people to establish explicit performance standards.
+Is completely on top of what is going on and knows where things stand.
+Provides balanced feedback at the most critical times.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May not give appropriate credit to others.
+Strictly enforces accountability; doesn’t consider situations that are beyond individuals’ control.
+Focuses too much on numbers and hard data; measurement becomes a goal and a pursuit of its own.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is slow to act on an opportunity.
+Spends too much time planning and looking for information.
+May be overly methodical, taking too long to act on a problem.
+Is reluctant to step up to challenges; waits for someone else to take action.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Readily takes action on challenges, without unnecessary planning.
+Identifies and seizes new opportunities.
+Displays a can-do attitude in good and bad times.
+Steps up to handle tough issues.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quickly and decisively takes action in fast-changing, unpredictable situations.
+Shows a tremendous amount of initiative in tough situations; is exceptional at spotting and seizing opportunities.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pushes solutions before adequate analysis.
+May waste energy by immediately tackling an issue, forcing rework along the way.
+Is so ready to act alone, misses counsel from others.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Struggles to make progress when facing ambiguous or uncertain situations.
+Delays moving forward until all the details are known.
+Appears stressed when things are uncertain.
+Operates best when things are structured and predictable.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deals comfortably with the uncertainty of change.
+Effectively handles risk.
+Can decide and act without the total picture.
+Is calm and productive, even when things are up in the air.
+Deals constructively with problems that do not have clear solutions or outcomes.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is energized when faced with ambiguity and uncertainty.
+Makes significant progress and remains calm and composed, even when things are uncertain.
+Manages the risk that comes with moving forward when the outcome isn’t certain.
+Adapts quickly to changing conditions.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May move to conclusions or action without enough data.
+May err toward the new and risky at the expense of proven solutions.
+Doesn’t honor others’ need for some level of clarity before acting.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haphazardly selects talent into the organization.
+Takes little action to match the talent to the role or organization.
+Is unclear about selection criteria or how to evaluate others’ skills.
+Selects people that are very similar to self.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attracts and selects diverse and high caliber talent.
+Finds the right talent to meet the group’s needs.
+Closes talent gaps with the right balance of internal and external candidates.
+Is a good judge of talent.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actively seeks and secures the best talent available.
+Creates pipelines of talent for the future from both internal and external talent pools.
+Evaluates talent using a thorough and consistent process.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overanalyzes and fails to get people into roles quickly enough to meet the needs of the business.
+May overlook slow starters and quiet, less expressive talent.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doesn’t understand how businesses work.
+Is not up-to-date on current and future policies, trends, and information affecting the organization.
+Is unaware of how strategies and tactics work in the marketplace.
+Doesn’t take business drivers into account when planning and executing own work.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Knows how businesses work and how organizations make money.
+Keeps up with current and possible future policies, practices, and trends in the organization, with the competition, and in the marketplace.
+Uses knowledge of business drivers and how strategies and tactics play out in the market to guide actions.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has an in-depth understanding of how businesses work and make money.
+Is the first to spot possible future policies, practices, and trends in the organization, with the competition, and in the marketplace.
+Consistently applies a business driver and marketplace focus when prioritizing actions.
+</t>
+  </si>
+  <si>
+    <t>Overdevelops or depends upon industry and business knowledge and skills at the expense of personal, interpersonal, managerial, and leadership skills.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overlooks opportunities to work collaboratively with others.
+Values own interests above others’.
+Shuts down lines of communication across groups.
+Prefers to work alone and be accountable for individual contributions.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Works cooperatively with others across the organization to achieve shared objectives.
+Represents own interests while being fair to others and their areas.
+Partners with others to get work done.
+Credits others for their contributions and accomplishments.
+Gains trust and support of others.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Models collaboration across the organization.
+Facilitates an open dialogue with a wide variety of contributors and stakeholders.
+Balances own interests with others’.
+Promotes high visibility of shared contributions to goals.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is overly consensus-driven and struggles to make decisions in a timely manner.
+Risks being perceived as lacking courage and failing to stand up for own beliefs.
+May be too accommodating.
+May prioritize collaboration at the expense of making tough decisions.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has difficulty communicating clear written and verbal messages.
+Tends to always communicate the same way without adjusting to diverse audiences.
+Doesn’t take the time to listen or understand others’ viewpoints.
+Doesn’t consistently share information others need to do their jobs.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is effective in a variety of communication settings: one-on-one, small and large groups, or among diverse styles and position levels.
+Attentively listens to others.
+Adjusts to fit the audience and the message.
+Provides timely and helpful information to others across the organization.
+Encourages the open expression of diverse ideas and opinions.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delivers messages in a clear, compelling, and concise manner.
+Actively listens and checks for understanding.
+Articulates messages in a way that is broadly understandable.
+Adjusts communication content and style to meet the needs of diverse stakeholders.
+Models and encourages the expression of diverse ideas and opinions.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May overinform, giving out information that isn’t helpful or harms productivity.
+May try to win with style and communication skills over fact and substance.
+May invest too much time crafting communications
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Misses the complexity of issues and force fits solutions.
+Doesn’t gather sufficient information to assess situations completely.
+Relies solely on intuition, even when contrary information exists.
+Is caught off guard when problems surface without an obvious solution.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asks the right questions to accurately analyze situations.
+Acquires data from multiple and diverse sources when solving problems.
+Uncovers root causes to difficult problems.
+Evaluates pros and cons, risks and benefits of different solution options.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Readily distinguishes between what’s relevant and what’s unimportant to make sense of complex situations.
+Looks beyond the obvious and doesn’t stop at the first answers.
+Analyzes multiple and diverse sources of information to define problems accurately before moving to solutions.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May tend toward analysis paralysis.
+May wait too long to come to a conclusion.
+May get caught up in the process and miss the big picture.
+May make things more complex than needed.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avoids conflict.
+Struggles to make progress when working through disagreements.
+Takes sides without digging deeply enough to fully understand the issues.
+Allows conflicts to cause massive disruption in the organization.
+Puts people on the defensive.
+May accommodate, wanting everyone to get along.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steps up to conflicts, seeing them as opportunities.
+Works out tough agreements and settles disputes equitably.
+Facilitates breakthroughs by integrating diverse views and finding common ground or acceptable alternatives.
+Settles differences in productive ways with minimum noise.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anticipates conflicts before they happen, based on knowledge of interpersonal and group dynamics.
+Asks questions and listens closely to all issues presented by stakeholders.
+Finds common ground and drives to consensus, ensuring that all feel heard.
+Defuses high-tension situations effectively.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May be seen as meddling in others’ issues.
+Is too eager to engage others in debate.
+Pushes for resolution before others are ready.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shies away from difficult issues or challenging assignments.
+Expresses point of view in an indirect manner.
+Avoids giving corrective feedback.
+Fails to take a stand on important issues.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Readily tackles tough assignments.
+Faces difficult issues and supports others who do the same.
+Provides direct and actionable feedback.
+Is willing to champion an idea or position despite dissent or political risk.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tackles difficult issues with optimism and confidence.
+Shares sensitive messages or unpopular points of view in a motivating manner.
+Lets people know where they stand, honestly and sensitively.
+Volunteers to tackle and lead tough assignments.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Struggles to identify which battles to take on and when to back down.
+Shares point of view on everything and could be seen as intimidating or a “know-it-all.”
+Communicates bluntly and fails to recognize the impact on relationships with others.
+Neglects own work in favor of getting involved in multiple difficult issues.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is unaware of customer expectations.
+Acts on incomplete or inaccurate understanding of customer needs.
+Conducts work activities from an internal, operational standpoint.
+Fails to build effective relationships with key customers.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gains insight into customer needs.
+Identifies opportunities that benefit the customer.
+Builds and delivers solutions that meet customer expectations.
+Establishes and maintains effective customer relationships.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anticipates customer needs and provides services that are beyond customer expectations.
+Uses customer insights to drive and guide the development of new offerings.
+Serves as a strategic partner to build, grow, and maintain profitable and long-lasting relationships with key accounts.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prioritizes information about customers over other important business realities.
+In the efforts to satisfy customers, takes liberties with the organization’s policies and procedures.
+Becomes too close to customers; makes promises to customers that the organization is unable to keep.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approaches decisions haphazardly or delays decision making.
+Makes decisions based on incomplete data or inaccurate assumptions.
+Ignores different points of view or makes decisions that impact short-term results at the expense of longer-term goals.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Makes sound decisions, even in the absence of complete information.
+Relies on a mixture of analysis, wisdom, experience, and judgment when making decisions.
+Considers all relevant factors and uses appropriate decision-making criteria and principles.
+Recognizes when a quick 80% solution will suffice.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decisively makes high-quality decisions, even when based on incomplete information or in the face of uncertainty.
+Actively seeks input from pertinent sources to make timely and well-informed decisions.
+Skillfully separates opinions from facts.
+Is respected by others for displaying superior judgment.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Applies an overly rigorous or methodological decision process to all issues, even where experience and intuition can work equally well.
+Is overly confident about own decision-making capability; reluctant to delegate decision making to others or hesitant to involve others when generating solutions.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doesn’t take time to work on development of others.
+Is a check-the-box developer; goes with the easiest option to fulfill talent development obligations.
+Doesn’t make use of available organization resources and systems to develop others.
+Has difficulty identifying developmental moves or assignments.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Places a high priority on developing others.
+Develops others through coaching, feedback, exposure, and stretch assignments.
+Aligns employee career development goals with organizational objectives.
+Encourages people to accept developmental moves.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Views talent development as an organizational imperative.
+Consistently uses multiple methods to develop others.
+Stays alert for developmental assignments both inside and outside own workgroup.
+Readily articulates the value and benefit of stretch assignments to others.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concentrates on the development of a few at the expense of many.
+Overestimates people’s capacity for growth.
+May be too quick to adopt faddish development approaches.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lacks awareness of other cultures.
+Treats everybody the same without regard to their differences.
+Expects everyone to adapt to his/her way of thinking and communicating.
+Lacks curiosity and interest in different people’s backgrounds and perspectives.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seeks to understand different perspectives and cultures.
+Contributes to a work climate where differences are valued and supported.
+Applies others’ diverse experiences, styles, backgrounds, and perspectives to get results.
+Is sensitive to cultural norms, expectations, and ways of communicating.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actively seeks out information about a wide variety of cultures and viewpoints.
+Promotes a team environment that values, encourages, and supports differences.
+Ensures that different experiences, styles, backgrounds, and perspectives are leveraged appropriately.
+Senses how differences will play out in terms of needs, values, and motivators.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May prioritize valuing difference over achieving results.
+May make too many allowances for members of a particular group.
+Is overly sensitive to different groups when delivering tough messages.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides incomplete, vague, or disorganized instructions.
+Delegates work to people without giving them sufficient guidance.
+Sets goals and objectives so easy to achieve that people are demotivated in the process.
+Saves high-profile tasks for self.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides clear direction and accountabilities.
+Delegates and distributes assignments and decisions appropriately.
+Monitors progress by maintaining dialogue on work and results.
+Provides appropriate guidance and direction based on people’s capabilities.
+Intervenes as needed to remove obstacles.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masterfully matches people to assignments.
+Conveys clear performance expectations and follows up consistently.
+Sets stretch goals and objectives, pushing individuals or teams to perform at higher levels.
+Delegates work in a way that empowers ownership.
+Tracks how work is progressing without meddling.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May be overly directive and stifle creativity and initiative.
+Pushes people too hard by asking them to work at their upper limits.
+May overdelegate without providing enough direction or help.
+Gives people authority that they shouldn’t have.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has little insight into what motivates others.
+Doesn’t give people enough flexibility and autonomy to do their work.
+Does little to create enthusiasm.
+Is unwilling to share ownership and give up control of assignments.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Structures the work so it aligns with people’s goals and motivators.
+Empowers others.
+Makes each person feel his/her contributions are important.
+Invites input and shares ownership and visibility.
+Shows a clear connection between people’s motivators and the organizational goals.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creates a positive and motivating working environment.
+Knows what motivates different people and aligns work accordingly.
+Gives others appropriate latitude to get work done.
+Invites input from others.
+Makes people feel that their contributions are visible and valued.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May accommodate others’ motivators at the expense of getting needed work done.
+May empower beyond people’s capacity.
+May avoid giving constructive feedback if it could negatively impact engagement.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is unfamiliar with financial terms.
+Is unclear about the cause-and-effect relationships among different business functions and overall financial performance.
+Pays little attention to financial impact when drawing conclusions.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Understands the meaning and implications of key financial indicators.
+Uses financial analysis to generate, evaluate, and act on strategic options and opportunities.
+Integrates quantitative and qualitative information to draw accurate conclusions.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transforms financial information into business intelligence through analysis and integration of quantitative and qualitative information.
+Identifies and monitors key financial indicators to gauge performance, identify trends, and suggest strategies that can impact results.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uses financial indicators as the only decision criteria, leading to an unbalanced view of organizational performance that is narrowly focused on financial outcomes.
+May sacrifice long-term business objectives for short-term financial gains.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is narrow in thinking when solving problems.
+Seldom comes up with multiple options or scenarios when addressing global issues.
+Maintains a home region or local-only perspective.
+Focuses on the here and now; shows little interest in the future or global issues.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Looks toward the broadest possible view of an issue or challenge.
+Thinks and talks in global terms.
+Understands the position of the organization within a global context.
+Knows the impact of global trends on the organization.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Considers multiple and varied viewpoints when addressing problems and opportunities.
+Thinks globally; excels at viewing issues on a worldwide basis.
+Develops scenarios to deal with the global uncertainties the organization faces.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has a tendency to overreach or to call upon experience that doesn’t apply to the current situation.
+Minimizes local needs, overemphasizing global issues.
+Pushes for opportunities on a global scale that the organization is not prepared for.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stays within comfort zone rather than experimenting with new ways of looking at things.
+Presents ideas that are ordinary, conventional, and from the past.
+Tends to be critical of others’ original ideas.
+Has a style that discourages the creative initiatives of others.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comes up with useful ideas that are new, better, or unique.
+Introduces new ways of looking at problems.
+Can take a creative idea and put it into practice.
+Encourages diverse thinking to promote and nurture innovation.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moves beyond traditional ways of doing things; pushes past the status quo.
+Continually assesses the market potential of an innovative idea or solution.
+Finds and champions the best creative ideas and actively moves them into implementation.
+Tries multiple, varied approaches to innovative ideas.
+Builds excitement in others to explore creative options.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gravitates toward the new and rejects the old.
+Comes up with so many unusual ideas that it overwhelms others.
+Expends too much time and effort looking at creative alternatives instead of taking action.
+Relentlessly pursues change and innovation at the cost of efficiency and reliability.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Builds few relationships.
+Engages with people in immediate work area only.
+Is uncomfortable when interacting with people different from self.
+Expresses points of view in a blunt or insensitive manner.
+Shows little interest in others’ needs.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relates comfortably with people across levels, functions, culture, and geography.
+Acts with diplomacy and tact.
+Builds rapport in an open, friendly, and accepting way.
+Builds constructive relationships with people both similar and different to self.
+Picks up on interpersonal and group dynamics.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proactively develops relationships with a wide variety of people.
+Builds immediate rapport, even when facing difficult or tense situations.
+Understands interpersonal and group dynamics and reacts in an effective manner.
+Engages input from others constantly and listens with empathy and concern.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is focused on understanding group and interpersonal dynamics at the expense of getting results.
+Makes ineffective decisions due to a strong need to be liked.
+May be seen as lacking authenticity.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Builds limited relationships with different groups.
+Has difficulty determining who to contact for resources or knowledge.
+Doesn’t tap into networks beyond own immediate area to exchange ideas or get things done.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Builds strong formal and informal networks.
+Maintains relationships across a variety of functions and locations.
+Draws upon multiple relationships to exchange ideas, resources, and know-how.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consults with a wide network of internal and external connections.
+Connects the right people to accomplish goals.
+Works through formal and informal channels to build broad-based relationships and support.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relies on networking at the expense of other skills and work priorities.
+May be perceived as a one-sided networker, using networks solely for own advantage.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Struggles to learn in new situations.
+Becomes frustrated or confused by unfamiliar tasks.
+Gives up on new ideas too soon.
+Resists taking a chance on untested solutions.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learns quickly when facing new situations.
+Experiments to find new solutions.
+Takes on the challenge of unfamiliar tasks.
+Extracts lessons learned from failures and mistakes.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tries multiple times using multiple methods to find the right solution.
+Views mistakes as opportunities to learn.
+Enjoys the challenge of unfamiliar tasks.
+Seeks new approaches to solve problems.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Takes on new challenges for the sake of it rather than in the interest of making a positive impact.
+Focuses on unvetted ideas simply because they are new.
+May take unnecessary risks in the name of learning.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overlooks or disregards the political complexities of the organization.
+Pursues own area’s goals without considering the impact on other groups.
+Says and does things that strain organizational relationships.
+Tends to be impatient with organizational processes and makes political errors.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is sensitive to how people and organizations function.
+Anticipates land mines and plans approach accordingly.
+Deals comfortably with organizational politics.
+Knows who has power, respect, and influence.
+Steers through the organizational maze to get things done.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navigates the political complexities of the organization easily.
+Has a clear understanding of other groups’ business priorities.
+Avoids provoking tension between groups.
+Uses knowledge of organizational culture to achieve objectives.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May prioritize organizational positioning, even when straightforward action is called for.
+May be seen as excessively political.
+May tell others what they want to hear instead of what he/she knows to be true.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pushes own point of view too strongly.
+Fails to win support or buy-in from others.
+Is unable to negotiate solutions that are agreeable to all.
+Responds negatively to the reactions and positions of others.
+Has difficulty articulating a logical argument that supports own position.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Positions views and arguments appropriately to win support.
+Convinces others to take action.
+Negotiates skillfully in tough situations.
+Wins concessions without damaging relationships.
+Responds effectively to the reactions and positions of others.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shares own ideas in a compelling manner that gains commitment from others.
+Negotiates skillfully and creates minimal noise when working toward an agreed-upon solution.
+Finds common ground and acceptable alternatives that satisfy the needs of multiple stakeholders.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attempts to negotiate when the situation calls for tough and decisive action.
+Spends so much time persuading that timely results are missed.
+May come across as manipulative.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gets caught up in immediate needs without attending to larger priorities.
+Spends time and resources without a clear purpose.
+Gets caught off guard by problems due to the lack of contingency plans.
+Haphazardly tracks progress or performance.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sets objectives to align with broader organizational goals.
+Breaks down objectives into appropriate initiatives and actions.
+Stages activities with relevant milestones and schedules.
+Anticipates and adjusts effective contingency plans.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Focuses on highest priorities and sets aside less critical tasks.
+Lays out a thorough schedule and steps for achieving objectives.
+Makes implementation plans that allocate resources precisely.
+Looks for obstacles and develops excellent contingency plans.
+Uses milestones to diligently track and manage the progress of the work.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is so focused on completing only mission-critical tasks that he/she lets the trivial many accumulate into a critical problem.
+Persistently follows plans, allowing little room for change.
+May leave out the human element of the work.
+Spends an inordinate amount of time planning for unlikely obstacles or roadblocks.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gets easily rattled in high-pressure situations.
+Exhibits low energy and motivation during times of stress and worry.
+Acts defensively when faced with criticism or roadblocks.
+Takes too long to recover from setbacks.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is confident under pressure.
+Handles and manages crises effectively.
+Maintains a positive attitude despite adversity.
+Bounces back from setbacks.
+Grows from hardships and negative experiences.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stays focused and composed in stressful situations.
+Maintains a positive attitude and forward-thinking approach despite troubling circumstances or setbacks.
+Takes constructive action to navigate difficulties or obstacles.
+Is viewed as a source of confidence in high-stress situations.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is unreasonably confident and optimistic; could miss the early signs of trouble.
+Fails to show emotion in appropriate circumstances; comes across as cold and uncaring.
+May allow stress to pile up, risking burnout.
+Minimizes the implications or severity of the situation.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has difficulty figuring out where to get resources.
+Relies on the same resources over and over.
+Gets frustrated and becomes inefficient when things don’t go as planned.
+Tries to impose one way of doing things; doesn’t adjust swiftly enough.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marshals resources (people, funding, material, support) to get things done.
+Orchestrates multiple activities simultaneously to accomplish a goal.
+Gets the most out of limited resources.
+Applies knowledge of internal structures, processes, and culture to resourcing efforts.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gets the most out of available resources and secures rare resources others can’t get.
+Adapts quickly to changing resource requirements.
+Enjoys multi-tasking; applies knowledge of the organization to advance multiple objectives.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stretches available resources beyond capacity.
+Hoards resources from others.
+Sometimes gathers resources too far ahead of time or obtains excess resources.
+Diverts too quickly from planned approach when something unexpected happens.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is reluctant to push for results.
+Does the least to get by.
+Is an inconsistent performer.
+Gives up easily; doesn’t go back with different strategies for the third and fourth try.
+Often misses deadlines.
+Procrastinates around whatever gets in the way.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has a strong bottom-line orientation.
+Persists in accomplishing objectives despite obstacles and setbacks.
+Has a track record of exceeding goals successfully.
+Pushes self and helps others achieve results.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sets aggressive goals and has high standards.
+Is consistently one of the top performers.
+Pursues everything with energy, drive, and the need to finish.
+Persists in the face of challenges and setbacks.
+Always keeps the end in sight; puts in extra effort to meet deadlines.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goes for results at all costs without appropriate concern for people, teams, due process, or possibly norms and ethics.
+May be so deadline oriented that he/she pushes to get something done rather than taking the time to do it right.
+Even in the face of near insurmountable obstacles, sticks with the effort beyond reason.
+Puts too much pressure on self and others to achieve the impossible.
+May not celebrate and share successes.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doesn’t reflect on past mistakes.
+Acts defensively when given feedback.
+Is unaware of own skills and interpersonal impact.
+Makes excuses and blames others.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reflects on activities and impact on others.
+Proactively seeks feedback without being defensive.
+Is open to criticism and talking about shortcomings.
+Admits mistakes and gains insight from experiences.
+Knows strengths, weaknesses, opportunities, and limits.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seeks and acts on feedback from a wide variety of people.
+Willingly admits and takes responsibility for mistakes and shortcomings.
+Views criticism as helpful.
+Can articulate the causes behind own feelings and moods.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overthinks or overanalyzes feedback from others.
+May be self-critical to the point of risking credibility and appearing insecure.
+Spends too much time on building self-insight and not enough time on making meaningful changes to behavior or skills.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doesn’t put in the effort to grow and change.
+Is comfortable with current skills.
+Is fearful of making mistakes that accompany development.
+Lacks awareness or interest in using available developmental resources.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shows personal commitment and takes action to continuously improve.
+Accepts assignments that broaden capabilities.
+Learns from new experiences, from others, and from structured learning.
+Makes the most of available development resources.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Takes consistent action to develop new skills.
+Finds ways to apply strengths to new issues.
+Is aware of the skills needed to be successful in different situations and levels.
+Seeks assignments that stretch him/her beyond comfort zone.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Develops just for the sake of development, without focus or objective.
+Focuses on own development at the expense of meeting other obligations.
+May be susceptible to the latest self-help fads.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uses same style and approach regardless of the situation.
+Fails to notice changing situational demands.
+Expects others to adjust to his/her preferred style and approach.
+Thinks being true to self is all that matters.
+Doesn’t take time to understand interpersonal dynamics.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Picks up on situational cues and adjusts in the moment.
+Readily adapts personal, interpersonal, and leadership behavior.
+Understands that different situations may call for different approaches.
+Can act differently depending on the circumstances.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Picks up on the need to change personal, interpersonal, and leadership behavior quickly.
+Observes situational and group dynamics and selects best-fit approach.
+Seamlessly adapts style to fit the specific needs of others.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May be seen as a social chameleon, leaving others unsure of when he/she is being genuine.
+Is hypervigilant in monitoring situational dynamics to the point that the desired outcome isn’t met; may come across as indecisive or wavering.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Focuses on meeting current expectations and needs of a limited number of stakeholders.
+Considers some stakeholders’ interests more strongly than others’.
+Allows conflicting stakeholder demands to unfairly influence actions.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Understands internal and external stakeholder requirements, expectations, and needs.
+Balances the interests of multiple stakeholders.
+Considers cultural and ethical factors in the decision-making process.
+Acts fairly despite conflicting demands of stakeholders.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maintains frequent interactions with a broad stakeholder network.
+Takes a proactive approach to shape and influence stakeholder expectations.
+Serves as a liaison between different stakeholder groups.
+Effectively aligns the interests of multiple, diverse stakeholders.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spends too much time interacting with stakeholders, slowing down decision making.
+Is too focused on clarifying stakeholder needs and building consensus among stakeholders when others are looking for clear direction on day-to-day business matters.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is more comfortable in the tactical here and now.
+Spends little time or effort thinking about or working on strategic issues.
+Contributes little to strategic discussions.
+Lacks the disciplined thought processes to pull together varying elements into a coherent view.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anticipates future trends and implications accurately.
+Readily poses future scenarios.
+Articulates credible pictures and visions of possibilities that will create sustainable value.
+Creates competitive and breakthrough strategies that show a clear connection between vision and action.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sees the big picture, constantly imagines future scenarios, and creates strategies to sustain competitive advantage.
+Is a visionary and able to articulately paint credible pictures and visions of possibilities and likelihoods.
+Formulates a clear strategy and maps the aggressive steps that will clearly accelerate the organization toward its strategic goals.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May be seen as too theoretical.
+May be so far ahead that others have trouble seeing how the organization will get from here to there.
+May be impatient with day-to-day tactical issues.
+May overcomplicate plans.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doesn’t create a common mindset or challenge.
+Fails to recognize that morale, recognition, and belongingness are integral ingredients of effective teams.
+Prioritizes and rewards individual efforts rather than team achievements.
+Doesn’t shape and distribute assignments in a way that encourages teamwork.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forms teams with appropriate and diverse mix of styles, perspectives, and experience.
+Establishes common objectives and a shared mindset.
+Creates a feeling of belonging and strong team morale.
+Shares wins and rewards team efforts.
+Fosters open dialogue and collaboration among the team.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defines success in terms of the whole team.
+Recognizes that leveraging each team member’s unique background and perspective is critical to achieving team goals.
+Rallies others behind common team goals.
+Places team goals ahead of own goals.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May focus so much on teaming behavior that results may suffer.
+May build such a strong sense of team identity that it is hard for new members to break in and get up to speed.
+May not develop individual leaders.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is inexperienced with key technology tools or too comfortable with existing applications to willingly adopt new technologies.
+Fails to seek out new or innovative technologies that could add business value.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anticipates the impact of emerging technologies and makes adjustments.
+Scans the environment for new technical skills, knowledge, or capabilities that can benefit business or personal performance.
+Rejects low-impact or fad technologies.
+Readily learns and adopts new technologies.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Continually scans the environment for technology breakthroughs.
+Experiments with a wide range of existing technologies while applying new and emerging options that can enhance organizational outcomes.
+Encourages others to learn and adopt new technologies.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Focuses too much on learning new technology or exploring technology applications rather than applying it effectively to meet business goals.
+Overlooks when others may not have the same level of tech savvy.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lacks consistent follow-through on commitments.
+Betrays confidences and covers up mistakes.
+Misrepresents facts for personal gain.
+Has trouble keeping confidences.
+Makes promises but doesn’t always keep them.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Follows through on commitments.
+Is seen as direct and truthful.
+Keeps confidences.
+Practices what he/she preaches.
+Shows consistency between words and actions.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gains the confidence and trust of others easily.
+Honors commitments and keeps confidences.
+Expresses self in a credible and transparent manner.
+Models high standards of honesty and integrity.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May push openness and honesty to the point of being disruptive.
+May come across as overly judgmental of those not quite as overtly authentic.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fails to personally connect with the organization’s vision.
+Has difficulty describing the vision in a compelling way.
+Can’t simplify enough to help people understand complex strategy.
+Struggles to energize and build excitement in others.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talks about future possibilities in a positive way.
+Creates milestones and symbols to rally support behind the vision.
+Articulates the vision in a way everyone can relate to.
+Creates organization-wide energy and optimism for the future.
+Shows personal commitment to the vision.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Articulates a compelling, inspired, and relatable vision.
+Communicates the vision with a sense of purpose about the future.
+Makes the vision sharable by everyone.
+Instills and sustains organization-wide energy for what is possible.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May lack follow-through to execute the vision.
+Communicates at a high level too often.
+May lack patience when others don’t share the same vision and sense of purpose.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Works in a disorganized fashion.
+Has difficulty figuring out effective and efficient processes to get things done.
+Accepts processes as they are; pays little attention to process improvement.
+Doesn’t take advantage of opportunities for synergy and efficiency.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifies and creates the processes necessary to get work done.
+Separates and combines activities into efficient workflow.
+Designs processes and procedures that allow managing from a distance.
+Seeks ways to improve processes, from small tweaks to complete reengineering.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Figures out the processes necessary to get things done.
+Separates and combines tasks into efficient and simple workflow.
+Thinks about the whole system.
+Focuses efforts on continuous improvement; has a knack for identifying and seizing opportunities for synergy and integration.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May have trouble explaining to others how processes work.
+May attempt to put too much together at once.
+Oversimplifies processes.
+Tinkers with processes that are working sufficiently well already.
+Is so focused on efficiency that the human element of the work is left out.
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Poor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> administrator</t>
+    </r>
+  </si>
+  <si>
+    <t>Trouble with people</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has low detail-orientation.
+Lets things fall through the cracks.
+Overcommits and underdelivers.
+Misses key details.
+Forgets undocumented commitments.
+Has to scramble to pull things together at the last minute.
+Moves on without completing the task.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Well organized and detail skilled.
+Reliable—keeps tabs on work in process; remembers commitments.
+Good administrator; keeps things on track.
+Sets tight priorities.
+Uses time well.
+Says no if they can’t get to it.
+Completes most things on time and in time.
+</t>
+  </si>
+  <si>
+    <t>Blocked personal learner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is closed to learning new personal, interpersonal, managerial, and leadership skills, approaches, and tactics.
+Prefers staying the same, even when faced with new and different challenges.
+Is narrow in interests and scope.
+Uses few learning tactics.
+Doesn’t seek input.
+Lacks curiosity.
+Is not insightful about self.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eager to learn; interested in what’s new or better.
+Has broad interests and perspective.
+Seeks and listens to feedback.
+Takes criticism to heart.
+Always looking to improve self.
+Carefully observes others for their reactions and adjusts accordingly.
+Reads people and groups well.
+Picks up on subtle corrective cues from others.
+Is sensitive to different challenges and changes accordingly.
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Lack of</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ethics and values</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Lacks the necessary sensitivity to the operating ethics and values of the organization.
+Operates too close to the margins.
+Pushes the limits of tolerance.
+Doesn’t operate within the norms.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Values and ethics are generally aligned with the organization’s.
+Operates within boundaries most others would agree to.
+Looked to for guidance on standards and norms.
+Stays steady through crises involving close calls on ethics.
+Can articulate own and others’ values.
+Helpful to others in making close calls on values/ethical matters.
+Projects a consistent set of values.
+</t>
+  </si>
+  <si>
+    <t>Failure to build a team</t>
+  </si>
+  <si>
+    <t>Doesn’t inspire or build talent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doesn’t believe much in the value of teams.
+Doesn’t pull the group together to accomplish the task.
+Delegates pieces and parts.
+Doesn’t resolve problems within the team.
+Doesn’t share credit for successes.
+Doesn’t celebrate.
+Doesn’t build team spirit.
+Treats people more as a collection of individuals than as a team.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usually operates in a team format.
+Talks “we,” “us,” and “the team” versus “I”.
+Gets the whole team motivated and enthused.
+Runs participative meetings and processes.
+Shares credit with the team for successes.
+Adds people to strengthen the team.
+Team performance doesn’t suffer when a key person moves on.
+Trusts the team to perform.
+</t>
+  </si>
+  <si>
+    <t>Failure to staff effectively</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does not assemble skilled staff either from inside or outside the organization.
+Uses inappropriate criteria and standards.
+May select people too much like self.
+Is not a good judge of people.
+Is consistently wrong on estimates of what others may do or become.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good judge of people.
+Hires for diversity and balance of skills.
+Describes people in a textured manner.
+Uses a broad set of criteria in staffing.
+Objective track record better than most on selections.
+Takes their time to find the right person.
+</t>
+  </si>
+  <si>
+    <t>Key skill deficiencies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lacks one or more key job-required talents or skills needed to perform effectively.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skilled in most if not all of the mission-critical areas of the job.
+Scopes out what skills are required to perform.
+Works to improve and expand skill set.
+Open to tutors, courses, any learning mode to improve proficiency.
+</t>
+  </si>
+  <si>
+    <t>Non-strategic</t>
+  </si>
+  <si>
+    <t>Too narrow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can’t create effective strategies.
+Can’t deal effectively with assignments that require strategic thinking.
+Gets mired in tactics and details.
+Prefers the tactical over the strategic, simple versus complex.
+Isn’t a visionary.
+Lacks broad perspective.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can think and talk strategy with the best.
+Intrigued and challenged by the complexity of the future.
+Likes to run multiple “what if” scenarios.
+Very broad perspective.
+Counsels others on strategic issues.
+Can juggle a lot of mental balls.
+Isn’t afraid to engage in wild speculation about the future.
+Can bring several unrelated streams of information together to form a compelling vision.
+Good at meaning making.
+Produces distinctive and winning strategies.
+</t>
+  </si>
+  <si>
+    <t>Overdependence on an advocate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has been with the same boss, champion, mentor, advocate too long.
+Isn’t seen as independent.
+Others question whether he/she could stand up to a tough assignment or situation without help.
+Might not do well in the organization if the advocate lost interest, lost out, or left the organization.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has largely done it on his/her own.
+Has multiple advocates and champions.
+No one questions whether he/she could go it alone.
+Independent, resourceful person.
+Doesn’t use a champion’s influence to get things done.
+Has moved around a lot; has not been with one boss very long.
+Has survived an advocate or two leaving the organization.
+</t>
+  </si>
+  <si>
+    <t>Overdependence on a single skill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relies too much on a single strength for performance and career progression.
+Uses the same core talent, function, or technology to leverage self.
+Acts as if they can make it all the way on one strength.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has a broad and varied background.
+Has moved around a lot.
+Relies on several different skills to get the job done.
+Has multiple functional exposures.
+Has worked in different business units.
+Always looking to learn more.
+Works on adding more skills.
+</t>
+  </si>
+  <si>
+    <t>Political missteps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can’t get things done in complex political settings and environments.
+Lacks sensitivity to people and organizational politics.
+Doesn’t recognize political due process requirements.
+Says and does the wrong things.
+Shares sensitive information and opinions with the wrong people.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is politically smooth and noiseless.
+Reads individuals and groups well; knows how they are affected.
+Modifies approach when resistance is met.
+Keeps confidences.
+Can maneuver through rough water without getting wet.
+Uses multiple ways to get things done.
+Adjusts to the realities of the political situation.
+Counsels others on political approaches.
+Usually knows the right thing to do and say.
+</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>A Problem</t>
+  </si>
+  <si>
+    <t>Not A Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Being resilient </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resourcefulness </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drives results </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <i/>
@@ -592,7 +2093,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Being</t>
+      <t>Demonstrates</t>
     </r>
     <r>
       <rPr>
@@ -602,11 +2103,83 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> resilient (Europe)</t>
+      <t xml:space="preserve"> self-awareness </t>
     </r>
   </si>
   <si>
-    <t>Resourcefulness (Europe)</t>
+    <t>Situational adaptability</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Balances</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> stakeholders </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Strategic mindset </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Builds effective</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> teams </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Tech savvy </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Instills</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> trust</t>
+    </r>
   </si>
   <si>
     <r>
@@ -627,126 +2200,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> results (Europe)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Demonstrates</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> self-awareness (Pat &amp; Helen)</t>
-    </r>
-  </si>
-  <si>
-    <t>Situational adaptability (Pat &amp; Helen)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Balances</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> stakeholders (Pat &amp; Helen)</t>
-    </r>
-  </si>
-  <si>
-    <t>Strategic mindset (Fatima &amp; Aliya)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Builds effective</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> teams (Fatima &amp; Alya)</t>
-    </r>
-  </si>
-  <si>
-    <t>Tech savvy (Fatima &amp; Alilya)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Instills</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> trust (Rudi &amp; Amy)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Drives</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> vision and purpose (Rudi &amp; Amy)</t>
+      <t xml:space="preserve"> vision and purpose</t>
     </r>
   </si>
   <si>
@@ -768,1234 +2222,15 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> work processes (Rudi *&amp; Amy)</t>
+      <t xml:space="preserve"> work processes</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Explain a time where you had to navigate through a sentiative situation in your organization. (for example competing priorities amoung groups).  What was the process you used and what was the result? </t>
-  </si>
-  <si>
-    <t>Give me an example when you anticipated something would change in the market that would impact impact your organization.  What was that change and how did you navigate through it?</t>
-  </si>
-  <si>
-    <t>Provide an example where you navigated through cultural differences to achieve the   objectives of a project? Did you achieve the result as anticipated?</t>
-  </si>
-  <si>
-    <t>Tell me a time when you had a plan for a project and your boss or team did not buy-in.  How did you proceed and complete your original objective.  What was the result?</t>
-  </si>
-  <si>
-    <t>Give me an example when you convinced management or a different team of your business idea when they were originally not on board. What was your process and how long did it take?</t>
-  </si>
-  <si>
-    <t>Explain a time when you had a difficult situation to come to a conclusion - how did you negotiate with the members of the project team to come to a successful business outcome?</t>
-  </si>
-  <si>
-    <t>Tell me a time when you had to negotiate with a customer when a change was required or requested.</t>
-  </si>
-  <si>
-    <t>Tell me about a time when your intergrety, honesty and authenticy was doubted or put to the test what did you do to change this?</t>
-  </si>
-  <si>
-    <t>Tell me about a time you expereinced unethical behavior at work, how did you handle the situation?</t>
-  </si>
-  <si>
-    <t>Tell me about a time you were able to gain trust and confidence with others?</t>
-  </si>
-  <si>
-    <t>Tell me about a time when your group experienced low moral as a result of the organization, how did you drive the purpose of the change and improve moral?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exaplain a time when you had to communicate a vision with a sense of purpose about the future to motivate others to action. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tell me about a time where you had to explain a complex vision to different levels, how did you do it and how was the message received. </t>
-  </si>
-  <si>
-    <t>Explain a time when you needed to pick a process that would best suit a sitation?</t>
-  </si>
-  <si>
-    <t>Tell me about a time you simplifed a complex process to save time and be more effective.</t>
-  </si>
-  <si>
-    <t>Tell me about a project that you worked on that you were able to give insite on process to help improve it.</t>
-  </si>
-  <si>
-    <t>Provide an example when you had to change your priorities due to business conditions or change in management direction.  How did you manage through this and were you successful?</t>
-  </si>
-  <si>
-    <t>Give me an example when you were leading a project and you had to define the resources that you needed.  Did you get all the resources required to complete the project as expected?  If you didn't, how did you manage?</t>
-  </si>
-  <si>
-    <t>Explain when you encountered obstacles to your project or work.  What were they, how did you overcome and what was the end result?</t>
-  </si>
-  <si>
-    <t>Provide an example when you managed a (large, medium or small-scale) project. What was your implementation plan?  Did you achieve the results on time and within budget?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explain a time when you had a stresfull situation and you stayed focus. </t>
-  </si>
-  <si>
-    <t>Explain a time when you had a stresfull situation which impacted you. How did you recover?</t>
-  </si>
-  <si>
-    <t>Explain a time when you had to use different or new reources to reach the result.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Provide an example how you quickly adapted to changing resource requirements. </t>
-  </si>
-  <si>
-    <t>Tell me about a time when you got results when others tried and failed.</t>
-  </si>
-  <si>
-    <t>Tell me about a time you got results even though some major factor changed such as a budget cut, competitor moves, or the market changed.</t>
-  </si>
-  <si>
-    <t>Tell me about a time when you got results against the odds.</t>
-  </si>
-  <si>
-    <t>Describe a situation when you created a strategy to susatin competitive advantage? How did you do it? What was the result?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Give an example of a time when you formulated a strategy and defined the follow up steps to achieve organization strategic goals? </t>
-  </si>
-  <si>
-    <t>Describe a time when you placed team goals ahead of your own goals? How did you achieve it? And what was the result?</t>
-  </si>
-  <si>
-    <t>Explain a time when you lead a diversified team in order to achieve a goal. What actions did you take? What was the outcome?</t>
-  </si>
-  <si>
-    <t>Tell me about a time when you defined criterial of success in terms of the whole team?</t>
-  </si>
-  <si>
-    <t>Describe a situation when a project that you worked on failed. What was your part in the failure. What actions did you take to turn the project around and make it a success</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tell me about a time that you had negative feedback during your yearly review. How did you use this feedback to improve your proformance and what the result. </t>
-  </si>
-  <si>
-    <t>Tell me the most successful experience when the team experienced high turnover during the project. How did you adapt your style to meet the changing needs of the team.</t>
-  </si>
-  <si>
-    <t>Tell me about a project that you led. How did you assess each team members strengths and weakness so that they can be best leveraged to ensure the project's success.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Describe a large scale project that you particpated in. The stakeholders were diverse both in terms of locations, goals and language. Explain how you ensured that everyone was kept informed at all times both in terms of content, frequency and methods of communication. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tell me about a project when there were multiple stakeholders with a variety of needs and goals. How did you bring them together to ensure all needs were met. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tell us a time when you  looked to be posted in new technology breakthroughs in the market. </t>
-  </si>
-  <si>
-    <t>Explain a moment when you encouraged other associates to learn and adopt new technologies?</t>
-  </si>
-  <si>
-    <t>Factor</t>
-  </si>
-  <si>
-    <t>Cluster</t>
-  </si>
-  <si>
-    <t>Factor I: Thought</t>
-  </si>
-  <si>
-    <t>Factor II: Results</t>
-  </si>
-  <si>
-    <t>Factor III: People</t>
-  </si>
-  <si>
-    <t>Factor IV: Self</t>
-  </si>
-  <si>
-    <t>Cluster L - Being Flexible and Adaptable</t>
-  </si>
-  <si>
-    <t>Cluster K - Being Open</t>
-  </si>
-  <si>
-    <t>Cluster J - Being Authentic</t>
-  </si>
-  <si>
-    <t>Cluster I - Influencing people</t>
-  </si>
-  <si>
-    <t>Cluster H - Optimizing Diverse Talent</t>
-  </si>
-  <si>
-    <t>Cluster G - Building Collaborative Relationships</t>
-  </si>
-  <si>
-    <t>Cluster F- Focusing on performance</t>
-  </si>
-  <si>
-    <t>Cluster E -Managing Execution</t>
-  </si>
-  <si>
-    <t>Cluster D - Taking Initiative</t>
-  </si>
-  <si>
-    <t>Cluster C - Creating the New and Different</t>
-  </si>
-  <si>
-    <t>Cluster B - Making Complex Decisions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cluster A - Understanding the Business	</t>
-  </si>
-  <si>
-    <t>LESS SKILLED</t>
-  </si>
-  <si>
-    <t>SKILLED</t>
-  </si>
-  <si>
-    <t>TALENTED</t>
-  </si>
-  <si>
-    <t>OVERUSED SKILL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fails to accept a fair share of personal responsibility.
-Gathers little information about how things are going.
-Provides inadequate feedback; fails to help others adjust course midstream.
-Prefers to be one of many accountable for an assignment.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Follows through on commitments and makes sure others do the same.
-Acts with a clear sense of ownership.
-Takes personal responsibility for decisions, actions, and failures.
-Establishes clear responsibilities and processes for monitoring work and measuring results.
-Designs feedback loops into work.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assumes responsibility for the outcomes of others.
-Promotes a sense of urgency and establishes and enforces individual accountability in the team.
-Works with people to establish explicit performance standards.
-Is completely on top of what is going on and knows where things stand.
-Provides balanced feedback at the most critical times.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May not give appropriate credit to others.
-Strictly enforces accountability; doesn’t consider situations that are beyond individuals’ control.
-Focuses too much on numbers and hard data; measurement becomes a goal and a pursuit of its own.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is slow to act on an opportunity.
-Spends too much time planning and looking for information.
-May be overly methodical, taking too long to act on a problem.
-Is reluctant to step up to challenges; waits for someone else to take action.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Readily takes action on challenges, without unnecessary planning.
-Identifies and seizes new opportunities.
-Displays a can-do attitude in good and bad times.
-Steps up to handle tough issues.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quickly and decisively takes action in fast-changing, unpredictable situations.
-Shows a tremendous amount of initiative in tough situations; is exceptional at spotting and seizing opportunities.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pushes solutions before adequate analysis.
-May waste energy by immediately tackling an issue, forcing rework along the way.
-Is so ready to act alone, misses counsel from others.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Struggles to make progress when facing ambiguous or uncertain situations.
-Delays moving forward until all the details are known.
-Appears stressed when things are uncertain.
-Operates best when things are structured and predictable.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deals comfortably with the uncertainty of change.
-Effectively handles risk.
-Can decide and act without the total picture.
-Is calm and productive, even when things are up in the air.
-Deals constructively with problems that do not have clear solutions or outcomes.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is energized when faced with ambiguity and uncertainty.
-Makes significant progress and remains calm and composed, even when things are uncertain.
-Manages the risk that comes with moving forward when the outcome isn’t certain.
-Adapts quickly to changing conditions.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May move to conclusions or action without enough data.
-May err toward the new and risky at the expense of proven solutions.
-Doesn’t honor others’ need for some level of clarity before acting.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haphazardly selects talent into the organization.
-Takes little action to match the talent to the role or organization.
-Is unclear about selection criteria or how to evaluate others’ skills.
-Selects people that are very similar to self.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attracts and selects diverse and high caliber talent.
-Finds the right talent to meet the group’s needs.
-Closes talent gaps with the right balance of internal and external candidates.
-Is a good judge of talent.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actively seeks and secures the best talent available.
-Creates pipelines of talent for the future from both internal and external talent pools.
-Evaluates talent using a thorough and consistent process.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overanalyzes and fails to get people into roles quickly enough to meet the needs of the business.
-May overlook slow starters and quiet, less expressive talent.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doesn’t understand how businesses work.
-Is not up-to-date on current and future policies, trends, and information affecting the organization.
-Is unaware of how strategies and tactics work in the marketplace.
-Doesn’t take business drivers into account when planning and executing own work.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Knows how businesses work and how organizations make money.
-Keeps up with current and possible future policies, practices, and trends in the organization, with the competition, and in the marketplace.
-Uses knowledge of business drivers and how strategies and tactics play out in the market to guide actions.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Has an in-depth understanding of how businesses work and make money.
-Is the first to spot possible future policies, practices, and trends in the organization, with the competition, and in the marketplace.
-Consistently applies a business driver and marketplace focus when prioritizing actions.
-</t>
-  </si>
-  <si>
-    <t>Overdevelops or depends upon industry and business knowledge and skills at the expense of personal, interpersonal, managerial, and leadership skills.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overlooks opportunities to work collaboratively with others.
-Values own interests above others’.
-Shuts down lines of communication across groups.
-Prefers to work alone and be accountable for individual contributions.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Works cooperatively with others across the organization to achieve shared objectives.
-Represents own interests while being fair to others and their areas.
-Partners with others to get work done.
-Credits others for their contributions and accomplishments.
-Gains trust and support of others.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Models collaboration across the organization.
-Facilitates an open dialogue with a wide variety of contributors and stakeholders.
-Balances own interests with others’.
-Promotes high visibility of shared contributions to goals.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is overly consensus-driven and struggles to make decisions in a timely manner.
-Risks being perceived as lacking courage and failing to stand up for own beliefs.
-May be too accommodating.
-May prioritize collaboration at the expense of making tough decisions.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Has difficulty communicating clear written and verbal messages.
-Tends to always communicate the same way without adjusting to diverse audiences.
-Doesn’t take the time to listen or understand others’ viewpoints.
-Doesn’t consistently share information others need to do their jobs.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is effective in a variety of communication settings: one-on-one, small and large groups, or among diverse styles and position levels.
-Attentively listens to others.
-Adjusts to fit the audience and the message.
-Provides timely and helpful information to others across the organization.
-Encourages the open expression of diverse ideas and opinions.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delivers messages in a clear, compelling, and concise manner.
-Actively listens and checks for understanding.
-Articulates messages in a way that is broadly understandable.
-Adjusts communication content and style to meet the needs of diverse stakeholders.
-Models and encourages the expression of diverse ideas and opinions.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May overinform, giving out information that isn’t helpful or harms productivity.
-May try to win with style and communication skills over fact and substance.
-May invest too much time crafting communications
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Misses the complexity of issues and force fits solutions.
-Doesn’t gather sufficient information to assess situations completely.
-Relies solely on intuition, even when contrary information exists.
-Is caught off guard when problems surface without an obvious solution.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asks the right questions to accurately analyze situations.
-Acquires data from multiple and diverse sources when solving problems.
-Uncovers root causes to difficult problems.
-Evaluates pros and cons, risks and benefits of different solution options.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Readily distinguishes between what’s relevant and what’s unimportant to make sense of complex situations.
-Looks beyond the obvious and doesn’t stop at the first answers.
-Analyzes multiple and diverse sources of information to define problems accurately before moving to solutions.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May tend toward analysis paralysis.
-May wait too long to come to a conclusion.
-May get caught up in the process and miss the big picture.
-May make things more complex than needed.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avoids conflict.
-Struggles to make progress when working through disagreements.
-Takes sides without digging deeply enough to fully understand the issues.
-Allows conflicts to cause massive disruption in the organization.
-Puts people on the defensive.
-May accommodate, wanting everyone to get along.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Steps up to conflicts, seeing them as opportunities.
-Works out tough agreements and settles disputes equitably.
-Facilitates breakthroughs by integrating diverse views and finding common ground or acceptable alternatives.
-Settles differences in productive ways with minimum noise.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anticipates conflicts before they happen, based on knowledge of interpersonal and group dynamics.
-Asks questions and listens closely to all issues presented by stakeholders.
-Finds common ground and drives to consensus, ensuring that all feel heard.
-Defuses high-tension situations effectively.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May be seen as meddling in others’ issues.
-Is too eager to engage others in debate.
-Pushes for resolution before others are ready.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shies away from difficult issues or challenging assignments.
-Expresses point of view in an indirect manner.
-Avoids giving corrective feedback.
-Fails to take a stand on important issues.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Readily tackles tough assignments.
-Faces difficult issues and supports others who do the same.
-Provides direct and actionable feedback.
-Is willing to champion an idea or position despite dissent or political risk.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tackles difficult issues with optimism and confidence.
-Shares sensitive messages or unpopular points of view in a motivating manner.
-Lets people know where they stand, honestly and sensitively.
-Volunteers to tackle and lead tough assignments.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Struggles to identify which battles to take on and when to back down.
-Shares point of view on everything and could be seen as intimidating or a “know-it-all.”
-Communicates bluntly and fails to recognize the impact on relationships with others.
-Neglects own work in favor of getting involved in multiple difficult issues.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is unaware of customer expectations.
-Acts on incomplete or inaccurate understanding of customer needs.
-Conducts work activities from an internal, operational standpoint.
-Fails to build effective relationships with key customers.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gains insight into customer needs.
-Identifies opportunities that benefit the customer.
-Builds and delivers solutions that meet customer expectations.
-Establishes and maintains effective customer relationships.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anticipates customer needs and provides services that are beyond customer expectations.
-Uses customer insights to drive and guide the development of new offerings.
-Serves as a strategic partner to build, grow, and maintain profitable and long-lasting relationships with key accounts.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prioritizes information about customers over other important business realities.
-In the efforts to satisfy customers, takes liberties with the organization’s policies and procedures.
-Becomes too close to customers; makes promises to customers that the organization is unable to keep.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Approaches decisions haphazardly or delays decision making.
-Makes decisions based on incomplete data or inaccurate assumptions.
-Ignores different points of view or makes decisions that impact short-term results at the expense of longer-term goals.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Makes sound decisions, even in the absence of complete information.
-Relies on a mixture of analysis, wisdom, experience, and judgment when making decisions.
-Considers all relevant factors and uses appropriate decision-making criteria and principles.
-Recognizes when a quick 80% solution will suffice.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Decisively makes high-quality decisions, even when based on incomplete information or in the face of uncertainty.
-Actively seeks input from pertinent sources to make timely and well-informed decisions.
-Skillfully separates opinions from facts.
-Is respected by others for displaying superior judgment.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Applies an overly rigorous or methodological decision process to all issues, even where experience and intuition can work equally well.
-Is overly confident about own decision-making capability; reluctant to delegate decision making to others or hesitant to involve others when generating solutions.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doesn’t take time to work on development of others.
-Is a check-the-box developer; goes with the easiest option to fulfill talent development obligations.
-Doesn’t make use of available organization resources and systems to develop others.
-Has difficulty identifying developmental moves or assignments.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Places a high priority on developing others.
-Develops others through coaching, feedback, exposure, and stretch assignments.
-Aligns employee career development goals with organizational objectives.
-Encourages people to accept developmental moves.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Views talent development as an organizational imperative.
-Consistently uses multiple methods to develop others.
-Stays alert for developmental assignments both inside and outside own workgroup.
-Readily articulates the value and benefit of stretch assignments to others.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Concentrates on the development of a few at the expense of many.
-Overestimates people’s capacity for growth.
-May be too quick to adopt faddish development approaches.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lacks awareness of other cultures.
-Treats everybody the same without regard to their differences.
-Expects everyone to adapt to his/her way of thinking and communicating.
-Lacks curiosity and interest in different people’s backgrounds and perspectives.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seeks to understand different perspectives and cultures.
-Contributes to a work climate where differences are valued and supported.
-Applies others’ diverse experiences, styles, backgrounds, and perspectives to get results.
-Is sensitive to cultural norms, expectations, and ways of communicating.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actively seeks out information about a wide variety of cultures and viewpoints.
-Promotes a team environment that values, encourages, and supports differences.
-Ensures that different experiences, styles, backgrounds, and perspectives are leveraged appropriately.
-Senses how differences will play out in terms of needs, values, and motivators.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May prioritize valuing difference over achieving results.
-May make too many allowances for members of a particular group.
-Is overly sensitive to different groups when delivering tough messages.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Provides incomplete, vague, or disorganized instructions.
-Delegates work to people without giving them sufficient guidance.
-Sets goals and objectives so easy to achieve that people are demotivated in the process.
-Saves high-profile tasks for self.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Provides clear direction and accountabilities.
-Delegates and distributes assignments and decisions appropriately.
-Monitors progress by maintaining dialogue on work and results.
-Provides appropriate guidance and direction based on people’s capabilities.
-Intervenes as needed to remove obstacles.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Masterfully matches people to assignments.
-Conveys clear performance expectations and follows up consistently.
-Sets stretch goals and objectives, pushing individuals or teams to perform at higher levels.
-Delegates work in a way that empowers ownership.
-Tracks how work is progressing without meddling.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May be overly directive and stifle creativity and initiative.
-Pushes people too hard by asking them to work at their upper limits.
-May overdelegate without providing enough direction or help.
-Gives people authority that they shouldn’t have.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Has little insight into what motivates others.
-Doesn’t give people enough flexibility and autonomy to do their work.
-Does little to create enthusiasm.
-Is unwilling to share ownership and give up control of assignments.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Structures the work so it aligns with people’s goals and motivators.
-Empowers others.
-Makes each person feel his/her contributions are important.
-Invites input and shares ownership and visibility.
-Shows a clear connection between people’s motivators and the organizational goals.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creates a positive and motivating working environment.
-Knows what motivates different people and aligns work accordingly.
-Gives others appropriate latitude to get work done.
-Invites input from others.
-Makes people feel that their contributions are visible and valued.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May accommodate others’ motivators at the expense of getting needed work done.
-May empower beyond people’s capacity.
-May avoid giving constructive feedback if it could negatively impact engagement.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is unfamiliar with financial terms.
-Is unclear about the cause-and-effect relationships among different business functions and overall financial performance.
-Pays little attention to financial impact when drawing conclusions.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Understands the meaning and implications of key financial indicators.
-Uses financial analysis to generate, evaluate, and act on strategic options and opportunities.
-Integrates quantitative and qualitative information to draw accurate conclusions.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transforms financial information into business intelligence through analysis and integration of quantitative and qualitative information.
-Identifies and monitors key financial indicators to gauge performance, identify trends, and suggest strategies that can impact results.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uses financial indicators as the only decision criteria, leading to an unbalanced view of organizational performance that is narrowly focused on financial outcomes.
-May sacrifice long-term business objectives for short-term financial gains.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is narrow in thinking when solving problems.
-Seldom comes up with multiple options or scenarios when addressing global issues.
-Maintains a home region or local-only perspective.
-Focuses on the here and now; shows little interest in the future or global issues.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Looks toward the broadest possible view of an issue or challenge.
-Thinks and talks in global terms.
-Understands the position of the organization within a global context.
-Knows the impact of global trends on the organization.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Considers multiple and varied viewpoints when addressing problems and opportunities.
-Thinks globally; excels at viewing issues on a worldwide basis.
-Develops scenarios to deal with the global uncertainties the organization faces.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Has a tendency to overreach or to call upon experience that doesn’t apply to the current situation.
-Minimizes local needs, overemphasizing global issues.
-Pushes for opportunities on a global scale that the organization is not prepared for.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stays within comfort zone rather than experimenting with new ways of looking at things.
-Presents ideas that are ordinary, conventional, and from the past.
-Tends to be critical of others’ original ideas.
-Has a style that discourages the creative initiatives of others.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comes up with useful ideas that are new, better, or unique.
-Introduces new ways of looking at problems.
-Can take a creative idea and put it into practice.
-Encourages diverse thinking to promote and nurture innovation.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moves beyond traditional ways of doing things; pushes past the status quo.
-Continually assesses the market potential of an innovative idea or solution.
-Finds and champions the best creative ideas and actively moves them into implementation.
-Tries multiple, varied approaches to innovative ideas.
-Builds excitement in others to explore creative options.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gravitates toward the new and rejects the old.
-Comes up with so many unusual ideas that it overwhelms others.
-Expends too much time and effort looking at creative alternatives instead of taking action.
-Relentlessly pursues change and innovation at the cost of efficiency and reliability.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Builds few relationships.
-Engages with people in immediate work area only.
-Is uncomfortable when interacting with people different from self.
-Expresses points of view in a blunt or insensitive manner.
-Shows little interest in others’ needs.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Relates comfortably with people across levels, functions, culture, and geography.
-Acts with diplomacy and tact.
-Builds rapport in an open, friendly, and accepting way.
-Builds constructive relationships with people both similar and different to self.
-Picks up on interpersonal and group dynamics.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proactively develops relationships with a wide variety of people.
-Builds immediate rapport, even when facing difficult or tense situations.
-Understands interpersonal and group dynamics and reacts in an effective manner.
-Engages input from others constantly and listens with empathy and concern.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is focused on understanding group and interpersonal dynamics at the expense of getting results.
-Makes ineffective decisions due to a strong need to be liked.
-May be seen as lacking authenticity.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Builds limited relationships with different groups.
-Has difficulty determining who to contact for resources or knowledge.
-Doesn’t tap into networks beyond own immediate area to exchange ideas or get things done.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Builds strong formal and informal networks.
-Maintains relationships across a variety of functions and locations.
-Draws upon multiple relationships to exchange ideas, resources, and know-how.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consults with a wide network of internal and external connections.
-Connects the right people to accomplish goals.
-Works through formal and informal channels to build broad-based relationships and support.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Relies on networking at the expense of other skills and work priorities.
-May be perceived as a one-sided networker, using networks solely for own advantage.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Struggles to learn in new situations.
-Becomes frustrated or confused by unfamiliar tasks.
-Gives up on new ideas too soon.
-Resists taking a chance on untested solutions.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Learns quickly when facing new situations.
-Experiments to find new solutions.
-Takes on the challenge of unfamiliar tasks.
-Extracts lessons learned from failures and mistakes.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tries multiple times using multiple methods to find the right solution.
-Views mistakes as opportunities to learn.
-Enjoys the challenge of unfamiliar tasks.
-Seeks new approaches to solve problems.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Takes on new challenges for the sake of it rather than in the interest of making a positive impact.
-Focuses on unvetted ideas simply because they are new.
-May take unnecessary risks in the name of learning.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overlooks or disregards the political complexities of the organization.
-Pursues own area’s goals without considering the impact on other groups.
-Says and does things that strain organizational relationships.
-Tends to be impatient with organizational processes and makes political errors.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is sensitive to how people and organizations function.
-Anticipates land mines and plans approach accordingly.
-Deals comfortably with organizational politics.
-Knows who has power, respect, and influence.
-Steers through the organizational maze to get things done.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Navigates the political complexities of the organization easily.
-Has a clear understanding of other groups’ business priorities.
-Avoids provoking tension between groups.
-Uses knowledge of organizational culture to achieve objectives.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May prioritize organizational positioning, even when straightforward action is called for.
-May be seen as excessively political.
-May tell others what they want to hear instead of what he/she knows to be true.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pushes own point of view too strongly.
-Fails to win support or buy-in from others.
-Is unable to negotiate solutions that are agreeable to all.
-Responds negatively to the reactions and positions of others.
-Has difficulty articulating a logical argument that supports own position.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Positions views and arguments appropriately to win support.
-Convinces others to take action.
-Negotiates skillfully in tough situations.
-Wins concessions without damaging relationships.
-Responds effectively to the reactions and positions of others.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shares own ideas in a compelling manner that gains commitment from others.
-Negotiates skillfully and creates minimal noise when working toward an agreed-upon solution.
-Finds common ground and acceptable alternatives that satisfy the needs of multiple stakeholders.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attempts to negotiate when the situation calls for tough and decisive action.
-Spends so much time persuading that timely results are missed.
-May come across as manipulative.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gets caught up in immediate needs without attending to larger priorities.
-Spends time and resources without a clear purpose.
-Gets caught off guard by problems due to the lack of contingency plans.
-Haphazardly tracks progress or performance.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sets objectives to align with broader organizational goals.
-Breaks down objectives into appropriate initiatives and actions.
-Stages activities with relevant milestones and schedules.
-Anticipates and adjusts effective contingency plans.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Focuses on highest priorities and sets aside less critical tasks.
-Lays out a thorough schedule and steps for achieving objectives.
-Makes implementation plans that allocate resources precisely.
-Looks for obstacles and develops excellent contingency plans.
-Uses milestones to diligently track and manage the progress of the work.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is so focused on completing only mission-critical tasks that he/she lets the trivial many accumulate into a critical problem.
-Persistently follows plans, allowing little room for change.
-May leave out the human element of the work.
-Spends an inordinate amount of time planning for unlikely obstacles or roadblocks.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gets easily rattled in high-pressure situations.
-Exhibits low energy and motivation during times of stress and worry.
-Acts defensively when faced with criticism or roadblocks.
-Takes too long to recover from setbacks.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is confident under pressure.
-Handles and manages crises effectively.
-Maintains a positive attitude despite adversity.
-Bounces back from setbacks.
-Grows from hardships and negative experiences.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stays focused and composed in stressful situations.
-Maintains a positive attitude and forward-thinking approach despite troubling circumstances or setbacks.
-Takes constructive action to navigate difficulties or obstacles.
-Is viewed as a source of confidence in high-stress situations.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is unreasonably confident and optimistic; could miss the early signs of trouble.
-Fails to show emotion in appropriate circumstances; comes across as cold and uncaring.
-May allow stress to pile up, risking burnout.
-Minimizes the implications or severity of the situation.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Has difficulty figuring out where to get resources.
-Relies on the same resources over and over.
-Gets frustrated and becomes inefficient when things don’t go as planned.
-Tries to impose one way of doing things; doesn’t adjust swiftly enough.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marshals resources (people, funding, material, support) to get things done.
-Orchestrates multiple activities simultaneously to accomplish a goal.
-Gets the most out of limited resources.
-Applies knowledge of internal structures, processes, and culture to resourcing efforts.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gets the most out of available resources and secures rare resources others can’t get.
-Adapts quickly to changing resource requirements.
-Enjoys multi-tasking; applies knowledge of the organization to advance multiple objectives.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stretches available resources beyond capacity.
-Hoards resources from others.
-Sometimes gathers resources too far ahead of time or obtains excess resources.
-Diverts too quickly from planned approach when something unexpected happens.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is reluctant to push for results.
-Does the least to get by.
-Is an inconsistent performer.
-Gives up easily; doesn’t go back with different strategies for the third and fourth try.
-Often misses deadlines.
-Procrastinates around whatever gets in the way.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Has a strong bottom-line orientation.
-Persists in accomplishing objectives despite obstacles and setbacks.
-Has a track record of exceeding goals successfully.
-Pushes self and helps others achieve results.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sets aggressive goals and has high standards.
-Is consistently one of the top performers.
-Pursues everything with energy, drive, and the need to finish.
-Persists in the face of challenges and setbacks.
-Always keeps the end in sight; puts in extra effort to meet deadlines.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Goes for results at all costs without appropriate concern for people, teams, due process, or possibly norms and ethics.
-May be so deadline oriented that he/she pushes to get something done rather than taking the time to do it right.
-Even in the face of near insurmountable obstacles, sticks with the effort beyond reason.
-Puts too much pressure on self and others to achieve the impossible.
-May not celebrate and share successes.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doesn’t reflect on past mistakes.
-Acts defensively when given feedback.
-Is unaware of own skills and interpersonal impact.
-Makes excuses and blames others.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reflects on activities and impact on others.
-Proactively seeks feedback without being defensive.
-Is open to criticism and talking about shortcomings.
-Admits mistakes and gains insight from experiences.
-Knows strengths, weaknesses, opportunities, and limits.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seeks and acts on feedback from a wide variety of people.
-Willingly admits and takes responsibility for mistakes and shortcomings.
-Views criticism as helpful.
-Can articulate the causes behind own feelings and moods.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overthinks or overanalyzes feedback from others.
-May be self-critical to the point of risking credibility and appearing insecure.
-Spends too much time on building self-insight and not enough time on making meaningful changes to behavior or skills.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doesn’t put in the effort to grow and change.
-Is comfortable with current skills.
-Is fearful of making mistakes that accompany development.
-Lacks awareness or interest in using available developmental resources.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shows personal commitment and takes action to continuously improve.
-Accepts assignments that broaden capabilities.
-Learns from new experiences, from others, and from structured learning.
-Makes the most of available development resources.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Takes consistent action to develop new skills.
-Finds ways to apply strengths to new issues.
-Is aware of the skills needed to be successful in different situations and levels.
-Seeks assignments that stretch him/her beyond comfort zone.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Develops just for the sake of development, without focus or objective.
-Focuses on own development at the expense of meeting other obligations.
-May be susceptible to the latest self-help fads.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uses same style and approach regardless of the situation.
-Fails to notice changing situational demands.
-Expects others to adjust to his/her preferred style and approach.
-Thinks being true to self is all that matters.
-Doesn’t take time to understand interpersonal dynamics.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Picks up on situational cues and adjusts in the moment.
-Readily adapts personal, interpersonal, and leadership behavior.
-Understands that different situations may call for different approaches.
-Can act differently depending on the circumstances.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Picks up on the need to change personal, interpersonal, and leadership behavior quickly.
-Observes situational and group dynamics and selects best-fit approach.
-Seamlessly adapts style to fit the specific needs of others.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May be seen as a social chameleon, leaving others unsure of when he/she is being genuine.
-Is hypervigilant in monitoring situational dynamics to the point that the desired outcome isn’t met; may come across as indecisive or wavering.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Focuses on meeting current expectations and needs of a limited number of stakeholders.
-Considers some stakeholders’ interests more strongly than others’.
-Allows conflicting stakeholder demands to unfairly influence actions.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Understands internal and external stakeholder requirements, expectations, and needs.
-Balances the interests of multiple stakeholders.
-Considers cultural and ethical factors in the decision-making process.
-Acts fairly despite conflicting demands of stakeholders.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maintains frequent interactions with a broad stakeholder network.
-Takes a proactive approach to shape and influence stakeholder expectations.
-Serves as a liaison between different stakeholder groups.
-Effectively aligns the interests of multiple, diverse stakeholders.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spends too much time interacting with stakeholders, slowing down decision making.
-Is too focused on clarifying stakeholder needs and building consensus among stakeholders when others are looking for clear direction on day-to-day business matters.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is more comfortable in the tactical here and now.
-Spends little time or effort thinking about or working on strategic issues.
-Contributes little to strategic discussions.
-Lacks the disciplined thought processes to pull together varying elements into a coherent view.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anticipates future trends and implications accurately.
-Readily poses future scenarios.
-Articulates credible pictures and visions of possibilities that will create sustainable value.
-Creates competitive and breakthrough strategies that show a clear connection between vision and action.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sees the big picture, constantly imagines future scenarios, and creates strategies to sustain competitive advantage.
-Is a visionary and able to articulately paint credible pictures and visions of possibilities and likelihoods.
-Formulates a clear strategy and maps the aggressive steps that will clearly accelerate the organization toward its strategic goals.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May be seen as too theoretical.
-May be so far ahead that others have trouble seeing how the organization will get from here to there.
-May be impatient with day-to-day tactical issues.
-May overcomplicate plans.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doesn’t create a common mindset or challenge.
-Fails to recognize that morale, recognition, and belongingness are integral ingredients of effective teams.
-Prioritizes and rewards individual efforts rather than team achievements.
-Doesn’t shape and distribute assignments in a way that encourages teamwork.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forms teams with appropriate and diverse mix of styles, perspectives, and experience.
-Establishes common objectives and a shared mindset.
-Creates a feeling of belonging and strong team morale.
-Shares wins and rewards team efforts.
-Fosters open dialogue and collaboration among the team.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Defines success in terms of the whole team.
-Recognizes that leveraging each team member’s unique background and perspective is critical to achieving team goals.
-Rallies others behind common team goals.
-Places team goals ahead of own goals.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May focus so much on teaming behavior that results may suffer.
-May build such a strong sense of team identity that it is hard for new members to break in and get up to speed.
-May not develop individual leaders.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is inexperienced with key technology tools or too comfortable with existing applications to willingly adopt new technologies.
-Fails to seek out new or innovative technologies that could add business value.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anticipates the impact of emerging technologies and makes adjustments.
-Scans the environment for new technical skills, knowledge, or capabilities that can benefit business or personal performance.
-Rejects low-impact or fad technologies.
-Readily learns and adopts new technologies.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Continually scans the environment for technology breakthroughs.
-Experiments with a wide range of existing technologies while applying new and emerging options that can enhance organizational outcomes.
-Encourages others to learn and adopt new technologies.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Focuses too much on learning new technology or exploring technology applications rather than applying it effectively to meet business goals.
-Overlooks when others may not have the same level of tech savvy.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lacks consistent follow-through on commitments.
-Betrays confidences and covers up mistakes.
-Misrepresents facts for personal gain.
-Has trouble keeping confidences.
-Makes promises but doesn’t always keep them.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Follows through on commitments.
-Is seen as direct and truthful.
-Keeps confidences.
-Practices what he/she preaches.
-Shows consistency between words and actions.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gains the confidence and trust of others easily.
-Honors commitments and keeps confidences.
-Expresses self in a credible and transparent manner.
-Models high standards of honesty and integrity.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May push openness and honesty to the point of being disruptive.
-May come across as overly judgmental of those not quite as overtly authentic.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fails to personally connect with the organization’s vision.
-Has difficulty describing the vision in a compelling way.
-Can’t simplify enough to help people understand complex strategy.
-Struggles to energize and build excitement in others.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talks about future possibilities in a positive way.
-Creates milestones and symbols to rally support behind the vision.
-Articulates the vision in a way everyone can relate to.
-Creates organization-wide energy and optimism for the future.
-Shows personal commitment to the vision.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Articulates a compelling, inspired, and relatable vision.
-Communicates the vision with a sense of purpose about the future.
-Makes the vision sharable by everyone.
-Instills and sustains organization-wide energy for what is possible.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May lack follow-through to execute the vision.
-Communicates at a high level too often.
-May lack patience when others don’t share the same vision and sense of purpose.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Works in a disorganized fashion.
-Has difficulty figuring out effective and efficient processes to get things done.
-Accepts processes as they are; pays little attention to process improvement.
-Doesn’t take advantage of opportunities for synergy and efficiency.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifies and creates the processes necessary to get work done.
-Separates and combines activities into efficient workflow.
-Designs processes and procedures that allow managing from a distance.
-Seeks ways to improve processes, from small tweaks to complete reengineering.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Figures out the processes necessary to get things done.
-Separates and combines tasks into efficient and simple workflow.
-Thinks about the whole system.
-Focuses efforts on continuous improvement; has a knack for identifying and seizing opportunities for synergy and integration.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May have trouble explaining to others how processes work.
-May attempt to put too much together at once.
-Oversimplifies processes.
-Tinkers with processes that are working sufficiently well already.
-Is so focused on efficiency that the human element of the work is left out.
-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2056,6 +2291,32 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -2121,12 +2382,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2197,11 +2462,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
     <cellStyle name="columnHeader" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="dataCell" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="quoteDataCell" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="worksheetDescription" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="worksheetTitle" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2515,8 +2796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2541,22 +2822,22 @@
         <v>1</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="J1" s="11" t="s">
         <v>59</v>
@@ -2582,22 +2863,22 @@
         <v>2</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="E2" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="H2" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="F2" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="G2" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="H2" s="23" t="s">
-        <v>211</v>
-      </c>
       <c r="I2" s="23" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>68</v>
@@ -2621,22 +2902,22 @@
         <v>4</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="E3" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="F3" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="F3" s="23" t="s">
-        <v>213</v>
-      </c>
       <c r="G3" s="23" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>77</v>
@@ -2658,22 +2939,22 @@
         <v>5</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>79</v>
@@ -2695,22 +2976,22 @@
         <v>7</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>83</v>
@@ -2736,22 +3017,22 @@
         <v>9</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>90</v>
@@ -2773,22 +3054,22 @@
         <v>11</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>81</v>
@@ -2810,22 +3091,22 @@
         <v>13</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="J8" s="8" t="s">
         <v>92</v>
@@ -2851,22 +3132,22 @@
         <v>14</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>98</v>
@@ -2890,22 +3171,22 @@
         <v>15</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>100</v>
@@ -2927,22 +3208,22 @@
         <v>17</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="J11" s="8" t="s">
         <v>101</v>
@@ -2964,22 +3245,22 @@
         <v>19</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>66</v>
@@ -3003,22 +3284,22 @@
         <v>21</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="J13" s="8" t="s">
         <v>103</v>
@@ -3042,22 +3323,22 @@
         <v>23</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>106</v>
@@ -3081,22 +3362,22 @@
         <v>24</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="H15" s="23" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="J15" s="6" t="s">
         <v>109</v>
@@ -3120,22 +3401,22 @@
         <v>26</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="H16" s="23" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="J16" s="14" t="s">
         <v>112</v>
@@ -3159,22 +3440,22 @@
         <v>27</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="H17" s="23" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="J17" s="6" t="s">
         <v>118</v>
@@ -3198,22 +3479,22 @@
         <v>29</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="H18" s="23" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="I18" s="23" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="J18" s="6" t="s">
         <v>115</v>
@@ -3237,22 +3518,22 @@
         <v>31</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="H19" s="23" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="I19" s="23" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="J19" s="14" t="s">
         <v>121</v>
@@ -3274,22 +3555,22 @@
         <v>32</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="G20" s="23" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="H20" s="23" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="I20" s="23" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="J20" s="8" t="s">
         <v>123</v>
@@ -3315,22 +3596,22 @@
         <v>34</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="H21" s="23" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="J21" s="8" t="s">
         <v>127</v>
@@ -3354,22 +3635,22 @@
         <v>35</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="H22" s="23" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="I22" s="23" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="J22" s="8" t="s">
         <v>130</v>
@@ -3391,22 +3672,22 @@
         <v>37</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="G23" s="23" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="H23" s="23" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="I23" s="23" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="J23" s="8" t="s">
         <v>132</v>
@@ -3430,31 +3711,31 @@
         <v>39</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="G24" s="23" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="H24" s="23" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="I24" s="23" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="M24" s="13"/>
     </row>
@@ -3469,34 +3750,34 @@
         <v>41</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="F25" s="23" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="G25" s="23" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="H25" s="23" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="I25" s="23" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="M25" s="10" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="135" x14ac:dyDescent="0.25">
@@ -3510,34 +3791,34 @@
         <v>43</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="G26" s="23" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="H26" s="23" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="I26" s="23" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="M26" s="10" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="90" x14ac:dyDescent="0.25">
@@ -3545,34 +3826,34 @@
         <v>26</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>135</v>
+        <v>387</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>44</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="F27" s="23" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="H27" s="23" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="I27" s="23" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="L27" s="8"/>
       <c r="M27" s="13"/>
@@ -3582,34 +3863,34 @@
         <v>27</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>136</v>
+        <v>388</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>45</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="F28" s="23" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="G28" s="23" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="H28" s="23" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="I28" s="23" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="L28" s="8"/>
       <c r="M28" s="13"/>
@@ -3619,37 +3900,37 @@
         <v>28</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>137</v>
+        <v>389</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>46</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="G29" s="23" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="H29" s="23" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="I29" s="23" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="L29" s="18" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M29" s="13"/>
     </row>
@@ -3658,34 +3939,34 @@
         <v>29</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>138</v>
+        <v>390</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>47</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="F30" s="23" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="G30" s="23" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="H30" s="23" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="I30" s="23" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="J30" s="22" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="K30" s="21" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="L30" s="2"/>
       <c r="M30" s="13"/>
@@ -3701,22 +3982,22 @@
         <v>49</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="F31" s="23" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="G31" s="23" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="H31" s="23" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="I31" s="23" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>63</v>
@@ -3734,34 +4015,34 @@
         <v>31</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>139</v>
+        <v>391</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>50</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="G32" s="23" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="H32" s="23" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="I32" s="23" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="J32" s="21" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="K32" s="22" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="L32" s="2"/>
       <c r="M32" s="13"/>
@@ -3771,34 +4052,34 @@
         <v>32</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>140</v>
+        <v>392</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>51</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="F33" s="23" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="G33" s="23" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="H33" s="23" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="I33" s="23" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="J33" s="22" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="K33" s="22" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="L33" s="2"/>
       <c r="M33" s="13"/>
@@ -3808,34 +4089,34 @@
         <v>33</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>141</v>
+        <v>393</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="F34" s="23" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="G34" s="23" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="H34" s="23" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="I34" s="23" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="J34" s="19" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="K34" s="19" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="L34" s="19"/>
       <c r="M34" s="13"/>
@@ -3845,37 +4126,37 @@
         <v>34</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>142</v>
+        <v>394</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>53</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="F35" s="23" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="G35" s="23" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="H35" s="23" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="I35" s="23" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="J35" s="20" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="K35" s="20" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="L35" s="20" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="M35" s="13"/>
     </row>
@@ -3884,34 +4165,34 @@
         <v>35</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>143</v>
+        <v>395</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>54</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="F36" s="23" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="G36" s="23" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="H36" s="23" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="I36" s="23" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="J36" s="19" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="K36" s="19" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="L36" s="2"/>
       <c r="M36" s="13"/>
@@ -3921,37 +4202,37 @@
         <v>36</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>144</v>
+        <v>396</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>55</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="F37" s="23" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="G37" s="23" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="H37" s="23" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="I37" s="23" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="M37" s="13"/>
     </row>
@@ -3960,37 +4241,37 @@
         <v>37</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>145</v>
+        <v>397</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>56</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="F38" s="23" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="G38" s="23" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="H38" s="23" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="I38" s="23" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="M38" s="13"/>
     </row>
@@ -3999,37 +4280,37 @@
         <v>38</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>146</v>
+        <v>398</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="F39" s="23" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="G39" s="23" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="H39" s="23" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="I39" s="23" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="J39" s="8" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="M39" s="13"/>
     </row>
@@ -4037,4 +4318,212 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:V1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="28"/>
+    <col min="2" max="2" width="34.85546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.7109375" style="28" customWidth="1"/>
+    <col min="4" max="5" width="57.140625" style="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>382</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>384</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>385</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A2" s="24">
+        <v>101</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>349</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A3" s="24">
+        <v>102</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>353</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A4" s="24">
+        <v>103</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>356</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>357</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A5" s="24">
+        <v>104</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>359</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>361</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A6" s="24">
+        <v>105</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>363</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>364</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="24">
+        <v>106</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>367</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="A8" s="24">
+        <v>107</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>370</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>371</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A9" s="24">
+        <v>108</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>373</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>370</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>374</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A10" s="24">
+        <v>109</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>370</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>377</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A11" s="24">
+        <v>110</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>379</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>370</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>381</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/KFLA/data.xlsx
+++ b/KFLA/data.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kodnetas\KFLA\KFLA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A29277C-CFA4-4E8E-8D36-A23309B71152}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BABA97E-29F0-470E-AA4B-3408DB72B3B8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="38 competency questions" sheetId="2" r:id="rId1"/>
-    <sheet name="stalkers and stopper" sheetId="3" r:id="rId2"/>
+    <sheet name="Stallers and Stoppers" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="446">
   <si>
     <t>Competency Name</t>
   </si>
@@ -212,27 +212,6 @@
   </si>
   <si>
     <t>Q3</t>
-  </si>
-  <si>
-    <t>Tell me about a time you didn't know how to approach something, how did you learn how to do it?</t>
-  </si>
-  <si>
-    <t>Give an example of how you learned something new in a new company - what was your process?</t>
-  </si>
-  <si>
-    <t>What resources have you used to develop through your career?</t>
-  </si>
-  <si>
-    <t>Tell me about a time when you had an unreasonable customer request, how did you handle it?</t>
-  </si>
-  <si>
-    <t>Give an example when you did something above and beyond for a customer?</t>
-  </si>
-  <si>
-    <t>Explain how you learn about your customers in order to engage with them positively.</t>
-  </si>
-  <si>
-    <t>Explain a time where you created a sense urgency with your team around a project? How did they respond and was the project completed as expected?</t>
   </si>
   <si>
     <r>
@@ -411,30 +390,9 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Provide an example when you were the first person with a solution to an issue or problem.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Example of when you didn't give up on determining the right solution for a project.  Explain why you didn't give up and how </t>
-  </si>
-  <si>
-    <t>Explain a time when you didn't have all the information to make a decision or proceed with a project.  How did you h andle this?</t>
-  </si>
-  <si>
-    <t>Explain a time when something changed in a project - budget, stakeholders, customer request.  How did you handle this change and what was the outcome?</t>
-  </si>
-  <si>
     <t>Tell me about a time when you led a cross-functional team.  How did you build those relationships and what was the result?</t>
   </si>
   <si>
-    <t>Tell me about a time when you had a group not get along or see the bigger picture of the project.  How did you lead them to a solid working relationship?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explain a time your partnered successfully with Recruiting to find the beset talent for an open position.  </t>
-  </si>
-  <si>
-    <t>Explain a time when you were able to leverage your network to find qualifed candidates for open positions.</t>
-  </si>
-  <si>
     <t xml:space="preserve">How do you evaluate candidates for open positions?  </t>
   </si>
   <si>
@@ -444,265 +402,16 @@
     <t>Q4</t>
   </si>
   <si>
-    <t xml:space="preserve">Explain a time when you did not meet specific performance goals.  How did you compensate?  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explain a time when your team did not meet specific performance goals.  How did you compensate?  </t>
-  </si>
-  <si>
-    <t>Tell me about a time when you developed a new idea to improve your business area.</t>
-  </si>
-  <si>
-    <t>Tell me about a time when you identified trends that you used for further advance a project or function?</t>
-  </si>
-  <si>
-    <t>Explain how you have communicated with different audiences - how did you adjust your communication so they understood what you are saying?</t>
-  </si>
-  <si>
-    <t>Tell me about a time when you led a project and you had to report out the progress, how did you approach that?</t>
-  </si>
-  <si>
-    <t>Tell me about a time when you were working with someone who didn't understand the approach/project, how did you eventually coach that person to gain understanding.</t>
-  </si>
-  <si>
-    <t>Tell me about a time when you had to deliver a negative or uncomfortable news to management or your team.  How did you approach this?</t>
-  </si>
-  <si>
-    <t>Tell me a time when you distinguished between what was relevant and what was unimportant in a complex project or task. Explain the situation and the results?</t>
-  </si>
-  <si>
-    <t>Tell me about a time when you had to look beyond the obvious and understand deeper levels of the situation.  How did you do this to solve the issue or problem.</t>
-  </si>
-  <si>
-    <t>Explain a time when you analyzes multiple and diverse sources of information to define a problem accurately before moving to a solutions.</t>
-  </si>
-  <si>
-    <t>Tell me about a time when you saw conflict coming.  How did you proactively address it to avoid the conflict?</t>
-  </si>
-  <si>
-    <t>Give an example when you managed conflict well.  What was the conflict and how was it resolved?</t>
-  </si>
-  <si>
-    <t>Tell me about a time you shared information that was not necessarily wanted. How was it taken and what was the result.</t>
-  </si>
-  <si>
     <t>Tell me about a time when you had to deliver negative feedback. What was your approach and how was it received?</t>
   </si>
   <si>
-    <t>Tell me about a time you had to make a deciion quickly in order to gain the result needed.</t>
-  </si>
-  <si>
-    <t>Given an example of when you made a bad decision, how did you rectify the situation?</t>
-  </si>
-  <si>
-    <t>Provide an example where you had to distinguish between opinions you were receiving v the actual facts of the situation.  How did you approach this and what ws the end result?</t>
-  </si>
-  <si>
-    <t>Explain how you have successfully developed a direct report or someone else in your organization. What was your approach and what was the result with the associate?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explain how frequently you have provided developmental opportunities for your team. What has been your experience and what methods have you used? </t>
-  </si>
-  <si>
-    <t>Explain how you have provided feedback in a developmental situation. How was it received and was it successful?</t>
-  </si>
-  <si>
-    <t>How have ensured that different experiences, work styles, backgrounds, and perspectives are leveraged appropriately within your team or within a project?  What was your method to do this and what  was the result?</t>
-  </si>
-  <si>
-    <t>Give me an example when you were trying to make a decision and asked for input from your team or organization.  Was it a better decision with more input?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tell me about a time when you were challenged to balance the needs of a diverse group.  Were you able to achieve ther results intended? Was the group pleased with the result? </t>
-  </si>
-  <si>
-    <t>Explain a situation where you conveyed clear performance expectations and how did you follow up with your team? Did you achieve the results as expected?</t>
-  </si>
-  <si>
-    <t>Explain a time when you successfully delegated a project to a team member.  What was the result and impact?  How about a time when you were unsuccessful delegating? What happened and how did you correct it?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explain when you set stretch goals and objectives, pushing individuals or teams to perform at higher levels. </t>
-  </si>
-  <si>
-    <t>Explain a project where you needed to identify and monitos key financial indicators to gauge performance, identify trends, and suggest strategies that impacted results.</t>
-  </si>
-  <si>
-    <t>Explain a time when you to present financial results to those who are are not financially savvy.  How did you explain it so they would understand.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Provide an example of when you used financial analysis to make your business case.  Did it work? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Describe a situation where you motivated a group of different team memers.  What was your appoach and how did they respond? </t>
-  </si>
-  <si>
-    <t>Explain a time where you may have stretched an associated beyond their capability.  How did you adjust your motivation for that associate.</t>
-  </si>
-  <si>
-    <t>Describe a time you avoided providing feedback and it impacted the engagement of your associate.  Explain the situation and the result with the associate.</t>
-  </si>
-  <si>
-    <t>Explain a time when you Developed different ideas/situations to help deal with global uncertainties of your group.</t>
-  </si>
-  <si>
-    <t>Explain a situation where you considered multiple and varied viewpoints when addressing your organizations problems and opportunities. What was the end result?</t>
-  </si>
-  <si>
-    <t>Tell me about a time when you developed a new idea to improve your business area.  Was it implemented and how?</t>
-  </si>
-  <si>
-    <t>Describe a time when you created excitement with your team to explore creative options.  What resulted from this and were any implemented?</t>
-  </si>
-  <si>
     <t>Explain a time when you had to sell a creative idea to higher management.  What was your approach and how was it received?  Was it implemented?</t>
   </si>
   <si>
-    <t>How do you stay on top of emerging trends in the industry?  How have you applied it to your projects/work?</t>
-  </si>
-  <si>
     <t>Explain a time when it was difficult to build rapport with a colleague or a team. What did you do and what was the end result?</t>
   </si>
   <si>
-    <t>Explain a time when you were involved with a complex project that needed support from a wide variety of people.  How did you build relationships with the team and also facilitate the team building within the team?</t>
-  </si>
-  <si>
-    <t>Provide an example of when you needed to show compassion or empathy to a team member.  What was the situation and were the results achieved as a result of this?</t>
-  </si>
-  <si>
-    <t>Explain when you have reached out to your network (internal or external) to achieve the results you needed to.</t>
-  </si>
-  <si>
-    <t>Explain how you have built your internal and external network. How has this helped you professionally in your career and achieving your goals.</t>
-  </si>
-  <si>
-    <t>Explain how you have used mulitple learning methods to come to the right solution.  What methods did you use and what was the final solution?</t>
-  </si>
-  <si>
-    <t>Explain a time when you made a mistake and you used that mistake as a an opportunity to learn. What was the situation and how did it positively work out for you.</t>
-  </si>
-  <si>
-    <t>Provide an example of when you needed to solve a new problem.  What approach did you take and what was the result?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explain a time where you had to navigate through a sentiative situation in your organization. (for example competing priorities amoung groups).  What was the process you used and what was the result? </t>
-  </si>
-  <si>
-    <t>Give me an example when you anticipated something would change in the market that would impact impact your organization.  What was that change and how did you navigate through it?</t>
-  </si>
-  <si>
-    <t>Provide an example where you navigated through cultural differences to achieve the   objectives of a project? Did you achieve the result as anticipated?</t>
-  </si>
-  <si>
-    <t>Tell me a time when you had a plan for a project and your boss or team did not buy-in.  How did you proceed and complete your original objective.  What was the result?</t>
-  </si>
-  <si>
-    <t>Give me an example when you convinced management or a different team of your business idea when they were originally not on board. What was your process and how long did it take?</t>
-  </si>
-  <si>
-    <t>Explain a time when you had a difficult situation to come to a conclusion - how did you negotiate with the members of the project team to come to a successful business outcome?</t>
-  </si>
-  <si>
-    <t>Tell me a time when you had to negotiate with a customer when a change was required or requested.</t>
-  </si>
-  <si>
-    <t>Tell me about a time when your intergrety, honesty and authenticy was doubted or put to the test what did you do to change this?</t>
-  </si>
-  <si>
-    <t>Tell me about a time you expereinced unethical behavior at work, how did you handle the situation?</t>
-  </si>
-  <si>
-    <t>Tell me about a time you were able to gain trust and confidence with others?</t>
-  </si>
-  <si>
-    <t>Tell me about a time when your group experienced low moral as a result of the organization, how did you drive the purpose of the change and improve moral?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exaplain a time when you had to communicate a vision with a sense of purpose about the future to motivate others to action. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tell me about a time where you had to explain a complex vision to different levels, how did you do it and how was the message received. </t>
-  </si>
-  <si>
-    <t>Explain a time when you needed to pick a process that would best suit a sitation?</t>
-  </si>
-  <si>
-    <t>Tell me about a time you simplifed a complex process to save time and be more effective.</t>
-  </si>
-  <si>
-    <t>Tell me about a project that you worked on that you were able to give insite on process to help improve it.</t>
-  </si>
-  <si>
-    <t>Provide an example when you had to change your priorities due to business conditions or change in management direction.  How did you manage through this and were you successful?</t>
-  </si>
-  <si>
-    <t>Give me an example when you were leading a project and you had to define the resources that you needed.  Did you get all the resources required to complete the project as expected?  If you didn't, how did you manage?</t>
-  </si>
-  <si>
-    <t>Explain when you encountered obstacles to your project or work.  What were they, how did you overcome and what was the end result?</t>
-  </si>
-  <si>
-    <t>Provide an example when you managed a (large, medium or small-scale) project. What was your implementation plan?  Did you achieve the results on time and within budget?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explain a time when you had a stresfull situation and you stayed focus. </t>
-  </si>
-  <si>
-    <t>Explain a time when you had a stresfull situation which impacted you. How did you recover?</t>
-  </si>
-  <si>
-    <t>Explain a time when you had to use different or new reources to reach the result.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Provide an example how you quickly adapted to changing resource requirements. </t>
-  </si>
-  <si>
-    <t>Tell me about a time when you got results when others tried and failed.</t>
-  </si>
-  <si>
-    <t>Tell me about a time you got results even though some major factor changed such as a budget cut, competitor moves, or the market changed.</t>
-  </si>
-  <si>
-    <t>Tell me about a time when you got results against the odds.</t>
-  </si>
-  <si>
-    <t>Describe a situation when you created a strategy to susatin competitive advantage? How did you do it? What was the result?</t>
-  </si>
-  <si>
     <t xml:space="preserve">Give an example of a time when you formulated a strategy and defined the follow up steps to achieve organization strategic goals? </t>
-  </si>
-  <si>
-    <t>Describe a time when you placed team goals ahead of your own goals? How did you achieve it? And what was the result?</t>
-  </si>
-  <si>
-    <t>Explain a time when you lead a diversified team in order to achieve a goal. What actions did you take? What was the outcome?</t>
-  </si>
-  <si>
-    <t>Tell me about a time when you defined criterial of success in terms of the whole team?</t>
-  </si>
-  <si>
-    <t>Describe a situation when a project that you worked on failed. What was your part in the failure. What actions did you take to turn the project around and make it a success</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tell me about a time that you had negative feedback during your yearly review. How did you use this feedback to improve your proformance and what the result. </t>
-  </si>
-  <si>
-    <t>Tell me the most successful experience when the team experienced high turnover during the project. How did you adapt your style to meet the changing needs of the team.</t>
-  </si>
-  <si>
-    <t>Tell me about a project that you led. How did you assess each team members strengths and weakness so that they can be best leveraged to ensure the project's success.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Describe a large scale project that you particpated in. The stakeholders were diverse both in terms of locations, goals and language. Explain how you ensured that everyone was kept informed at all times both in terms of content, frequency and methods of communication. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tell me about a project when there were multiple stakeholders with a variety of needs and goals. How did you bring them together to ensure all needs were met. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tell us a time when you  looked to be posted in new technology breakthroughs in the market. </t>
-  </si>
-  <si>
-    <t>Explain a moment when you encouraged other associates to learn and adopt new technologies?</t>
   </si>
   <si>
     <t>Factor</t>
@@ -1802,26 +1511,6 @@
 Tinkers with processes that are working sufficiently well already.
 Is so focused on efficiency that the human element of the work is left out.
 </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Poor</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> administrator</t>
-    </r>
   </si>
   <si>
     <t>Trouble with people</t>
@@ -1870,26 +1559,6 @@
 Picks up on subtle corrective cues from others.
 Is sensitive to different challenges and changes accordingly.
 </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Lack of</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> ethics and values</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Lacks the necessary sensitivity to the operating ethics and values of the organization.
@@ -2225,12 +1894,505 @@
       <t xml:space="preserve"> work processes</t>
     </r>
   </si>
+  <si>
+    <t>Question 1</t>
+  </si>
+  <si>
+    <t>Question 2</t>
+  </si>
+  <si>
+    <t>Question 3</t>
+  </si>
+  <si>
+    <t>Question 4</t>
+  </si>
+  <si>
+    <t>Tell me about a time that you overcommitted to a project and ended up underdelivering.  How did you recover?  What were the consequences?</t>
+  </si>
+  <si>
+    <t>How do you stay organized?  Have you had a time that you missed a deadline since you didn't document it?</t>
+  </si>
+  <si>
+    <t>Explain a project with multiple streams and stakeholders.  How did you stay organized?  What tricks do you have to ensure you don't miss deadlines.</t>
+  </si>
+  <si>
+    <t>Explain a time when you had to say no to a project.  What was the reaction from the requestor?  How did you handle?</t>
+  </si>
+  <si>
+    <t>How have you developed yourself throughout your career? What is your preferred learning track?</t>
+  </si>
+  <si>
+    <t>Explain a time that you were curious about something and you proceeded to take time to learn about it.  What tactics did you use?</t>
+  </si>
+  <si>
+    <t>What are you looking for from a development perspective? What is your preferred mode of learning?</t>
+  </si>
+  <si>
+    <t>What are your top 3 values? Why are they important to you?</t>
+  </si>
+  <si>
+    <t>Explain a time when you decided not to do something because of your values.</t>
+  </si>
+  <si>
+    <t>Explain a time when you pulled together a team to accomplish a task or project and it failed.  What did you learn from it?</t>
+  </si>
+  <si>
+    <t>Explain a time that you celebrated successes of your team.</t>
+  </si>
+  <si>
+    <t>Tell me about a time when you had challenges within your team.  How did you handle and what was the outcome?</t>
+  </si>
+  <si>
+    <t>Do you tend to delegate whole projects or just pieces?  Why do you take the approach stated?</t>
+  </si>
+  <si>
+    <t>Explain a hiring mistake that you have made from your past.  What happened and how did you resolve it?</t>
+  </si>
+  <si>
+    <t>When selecting members of your team, what do you usually look for?</t>
+  </si>
+  <si>
+    <t>Have you had a direct report who you believed would excel in their position and they didn't?  How did you approach this?</t>
+  </si>
+  <si>
+    <t>When interviewing - ensure you have your key technical/functional skills identified and look for ways to ensure they have them</t>
+  </si>
+  <si>
+    <t>Explain a time when you were expected to come up with a strategic vision but you stayed focus on more tactics and details.  How did it work out and were you able to overcorrect?</t>
+  </si>
+  <si>
+    <t>Explain a time when you came up with a  strategy that could not be implemented.  Why not and what did you do to compensate?</t>
+  </si>
+  <si>
+    <t>How many different bosses and mentors have you had over the years?  What have you learned from them?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explain an assignment that you were given and you had to navigate it independently.  How did you handle it?  Did you need coaching and mentoring? </t>
+  </si>
+  <si>
+    <t>Tell me about a time when a favorite boss left the company or moved to a new assignment? How did it go with the replacement?  Did you need to adjust your work style?</t>
+  </si>
+  <si>
+    <t>When interviewing - look for signs that they have used the same technology, the same strength or has been in the same function throughout their career.  This may limit their learning agility.</t>
+  </si>
+  <si>
+    <t>Provide an example of when you may have shared information with someone you shouldn't have.  What happened and how did you correct it?</t>
+  </si>
+  <si>
+    <t>Tell me about a time you struggled to get things done with multiple stakeholders.  Why do you think it happened and how did you adjust your approach the next time?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Poor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> administrator</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Lack of</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ethics and values</t>
+    </r>
+  </si>
+  <si>
+    <t>Explain a time where you created a sense of urgency with your team around a project? How did they respond and was the project completed as expected?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explain a time when you or your team did not meet specific performance goals.  What was your course of action?  </t>
+  </si>
+  <si>
+    <t>Provide an example of when you followed through on a commitment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provide an example when you were the first person with a solution to an issue or a problem.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provide an example of when you didn't give up on finding the right solution for a project. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explain a time when you quickly and decisively took action in a situation. </t>
+  </si>
+  <si>
+    <t>Explain a time when you didn't have all the information to make a decision or proceed with a project.  How did you handle it?</t>
+  </si>
+  <si>
+    <t>Explain a time when something changed in a project (e.g., budget, stakeholders, customer request)  How did you handle this change and what was the outcome?</t>
+  </si>
+  <si>
+    <t>Tell me about a time when you took action without enough data. What was the outcome?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explain a time you partnered successfully with recruitment team to find the best talent for an open position.  </t>
+  </si>
+  <si>
+    <t>Explain a time when you were able to leverage your network to find qualified diverse candidates for open positions.</t>
+  </si>
+  <si>
+    <t>Tell me about a time you used financial or industry data to developed or improve business.</t>
+  </si>
+  <si>
+    <t>Tell me about a time when you identified trends that you used to advance a project or function?</t>
+  </si>
+  <si>
+    <t>Explain a time when you identified a policy, practice or procedure to benefit your business/organization.</t>
+  </si>
+  <si>
+    <t>Tell me about a time when you were part of a group that did not get along or did not see the bigger picture of the project. How did you lead them to a solid working relationship?</t>
+  </si>
+  <si>
+    <t>Describe a time when you facilitated an open dialogue with a wide variety of contributors and stakeholders.</t>
+  </si>
+  <si>
+    <t>Explain how you communicate with different audiences. Provide an example when you had to adjust your communication so they understood what you are saying.</t>
+  </si>
+  <si>
+    <t>Tell me about a time when you led a project and had to report on its progress. What was your approach?</t>
+  </si>
+  <si>
+    <t>Tell me about a time when you were working with someone who didn't understand the project. What was your approach?</t>
+  </si>
+  <si>
+    <t>Tell me about a time when you had to deliver negative or uncomfortable news to management or your team.  How did you approach this?</t>
+  </si>
+  <si>
+    <t>Explain a time when you analyzed multiple and diverse sources of information to define a problem accurately before moving to a solution.</t>
+  </si>
+  <si>
+    <t>Tell me about a time when you distinguished between what was relevant and what was unimportant in a complex project or task. Explain the situation and the results.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tell me about a time when you had to look beyond the obvious and understand deeper levels of the situation.  </t>
+  </si>
+  <si>
+    <t>Give an example of when you managed a conflict well.  How was it resolved?</t>
+  </si>
+  <si>
+    <t>Tell me about a time when you anticipated conflict. How did you you address the situation? Did you managed to avoid the conflict in the end?</t>
+  </si>
+  <si>
+    <t>Tell me about a time when you disagreed with someone's opinion. What did you do?</t>
+  </si>
+  <si>
+    <t>Tell me about a time you shared unpleasant news with a manager or team (e.g., missed deadline, lost sale) How was the message received and what was the result?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provide an example of a time you volunteered to take on a difficult assignment. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provide an example of when you anticipated a customer need and went above and beyond to meet it. </t>
+  </si>
+  <si>
+    <t>Tell me about a time when you had an unreasonable customer request. How did you handle it?</t>
+  </si>
+  <si>
+    <t>Provide an example on how you researched your customer to ensure positive engagement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explain when you have used a customer insight to drive the development of a new product or offering. </t>
+  </si>
+  <si>
+    <t>Tell me about a time you had to make a decision quickly in order to gain a positive result.</t>
+  </si>
+  <si>
+    <t>Provide an example where you had to distinguish between opinions and facts.  How did you approach this and what was the end result?</t>
+  </si>
+  <si>
+    <t>Provide an example of when you made a bad decision. How did you rectify the situation?</t>
+  </si>
+  <si>
+    <t>Explain how you have successfully developed talent in your team or within the organization? What was your approach and what was the result for the associate?</t>
+  </si>
+  <si>
+    <t>Provide an example of a stretch assignment for a member of your team.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explain how you have used various developmental tools to provide opportunities for your team. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provide an example of when you provided feedback in a developmental situation. </t>
+  </si>
+  <si>
+    <t>Explain how you have leveraged different experiences, work styles, backgrounds, and perspectives within your team or within a project?  What  was the result?</t>
+  </si>
+  <si>
+    <t>Provide an example of when you asked for input from your team or organization around a decision. How did the varied input affect the decision?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tell me about a time when you were challenged to balance the needs of a diverse group.  Were you able to achieve the results intended? Was the group pleased with the result? </t>
+  </si>
+  <si>
+    <t>Explain a situation where you conveyed clear performance expectations. How did you follow up with your team? Did you achieve the expected results?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tell me about a time when you set stretch goals and objectives, pushing an individual or a team to elevate performance. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explain a time when you successfully delegated a project to a team member.  What was the result and impact?  </t>
+  </si>
+  <si>
+    <t>Explain a time when you were unsuccessful delegating. What was the result and impact?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Describe a situation where you had to motivate a group of different team members.  What was your approach and how did they respond? </t>
+  </si>
+  <si>
+    <t>Explain a time when you may have stretched an associate beyond their capability.  How did you adjust your motivation for that associate?</t>
+  </si>
+  <si>
+    <t>Describe a time you had to avoid providing constructive feedback and it impacted the engagement of your associate.  How did the situation unfold?</t>
+  </si>
+  <si>
+    <t>Explain a project where you needed to identify and monitor key financial indicators to measure performance, identify trends, and suggest strategies that impacted results.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Explain a time </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>when you had to present financial results to people with limited financially acumen.  What was your approach?</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Provide an example of when you used financial analysis to make your business case.  How did it work? </t>
+  </si>
+  <si>
+    <t>Explain a time when you developed different ideas within your group to deal with global uncertainties.</t>
+  </si>
+  <si>
+    <t>Explain a situation where you considered multiple and varied viewpoints when addressing problems and opportunities. What was the end result?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provide an example where you pushed for an opportunity on a global scale that your organization was not prepared for. What was the result? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tell me about a time when you developed a new viable idea to improve your business area.  </t>
+  </si>
+  <si>
+    <t>Describe a time when you created excitement within your team to explore creative options.  What was the end result?</t>
+  </si>
+  <si>
+    <t>How do you stay on top of emerging trends in the industry?  How did you apply them in implementing your team projects?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explain a time when you were involved with a complex project that needed support from a wide variety of people.  How did you build relationships with the team? </t>
+  </si>
+  <si>
+    <t>Provide an example of when you needed to show compassion or empathy to a team member.  What was the situation and result?</t>
+  </si>
+  <si>
+    <t>Provide an example when you needed to consult within your network (internal or external) to accomplish your goals.</t>
+  </si>
+  <si>
+    <t>Provide an example of a situation when you had to build an internal and external network. How did it help you professionally (i.e., to progress in your career and achieve your goals).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provide an example of consulting with a network beyond your immediate functional area. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provide an example when you had to use multiple learning methods to come to the right solution.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explain a time when you made a mistake. How did you manage to turn that mistake into a learning opportunity? </t>
+  </si>
+  <si>
+    <t>Provide an example of when you used a different approach to solve a problem.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explain a time when you had to navigate through a sensitive situation in your organization (e.g., to deal with competing priorities among groups).  What was the process you used and what was the result? </t>
+  </si>
+  <si>
+    <t>Provide an example when you anticipated a change in the market that could impact  your organization.  What was that change and how did you navigate through it?</t>
+  </si>
+  <si>
+    <t>Provide an example where you navigated through cultural differences to achieve the  objectives of a project? Did you achieve the result as anticipated?</t>
+  </si>
+  <si>
+    <t>Provide an example when you convinced management or a different team about your business idea. What was your approach?</t>
+  </si>
+  <si>
+    <t>Provide an example of a situation when you had a plan for a project and your boss or team were not on board.  How did you handle the situation? What was the result?</t>
+  </si>
+  <si>
+    <t>Provide an example of a time when you had to encounter views that were different from your own. How did you negotiate with the members of the project team to come to a successful business outcome?</t>
+  </si>
+  <si>
+    <t>Tell me about a time when you had to negotiate with a customer who had expressed the need for a change.</t>
+  </si>
+  <si>
+    <t>Provide an example when you had to change your priorities according to business conditions or a shift in management direction.  What was your approach?</t>
+  </si>
+  <si>
+    <t>Provide an example of a situation when you had to lead a project and define the necessary resources.  Were you successful in securing those resources?  If not, how did you handle the situation?</t>
+  </si>
+  <si>
+    <t>Provide an example of a time when you encountered obstacles with your project or work.  How did you deal with those obstacles and what was the end result?</t>
+  </si>
+  <si>
+    <t>Provide an example of when you managed a project which turned out to be a success. How did you plan the project?  Did you achieve the results on time and within budget?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explain a time when you had a stressful situation. How did you manage to stay focused? </t>
+  </si>
+  <si>
+    <t>Provide an example of a time when you had to take constructive action to gravitate through a difficult situation.</t>
+  </si>
+  <si>
+    <t>Provide an example of a situation when you needed to recover from a set-back during a project.</t>
+  </si>
+  <si>
+    <t>Provide an example of a time when you had to use different or new resources to reach the desired outcome.</t>
+  </si>
+  <si>
+    <t>Provide an example of a time when you had to make the most out of limited recourses available. How did you allocate them?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Provide an example of a situation when your knowledge of internal structures, processes and/or culture helped you complete a project on time and within budget.</t>
+    </r>
+  </si>
+  <si>
+    <t>Tell me about a time when you were asked to take on a project that was failing. How did you turn it around and deliver positive results?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provide an example of a time when you had to work on a challenging task/project. How did you manage to overcome these challenges?  </t>
+  </si>
+  <si>
+    <t>Tell me about a time when you achieved results but at a high cost (e.g., over-stretched team, compromised budget, overruns). What were the consequences?</t>
+  </si>
+  <si>
+    <t>Tell me about a time when you had to take responsibility for a mistake or short-coming. How did you recover?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tell me about a time when you received constructive feedback. How did you use this feedback to improve your performance?  </t>
+  </si>
+  <si>
+    <t>How do you typically overcome a limitation?</t>
+  </si>
+  <si>
+    <t>Tell me about a time you learned something new. What was your process?</t>
+  </si>
+  <si>
+    <t>Tell me about a time when you didn't know how to approach a task.  What was your approach?</t>
+  </si>
+  <si>
+    <t>Describe a time when you sought out an assignment that stretched you out of your comfort zone. How did you handle it?</t>
+  </si>
+  <si>
+    <t>Describe a time when you needed to adjust your interpersonal or leadership behavior to adapt to a team.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When leading a project, how do you normally assess the strengths and weaknesses of each team member in order to achieve the best results. Provide a real-life example from your past. </t>
+  </si>
+  <si>
+    <t>Tell me about a time when you did not manage to adapt to a new situation quickly enough. How did this impact the dynamics of the team and the end result?</t>
+  </si>
+  <si>
+    <t>Provide an example of a large scale project that you led.  How did you keep the stakeholders informed and up to date on the progress of that project?</t>
+  </si>
+  <si>
+    <t>Provide an example of a project involving multiple stakeholders with a variety of needs and goals. How did you bring them together to ensure that all needs were met?</t>
+  </si>
+  <si>
+    <t>Explain a time when you were able to influence the stakeholders expectations, what were your methods n doing this?</t>
+  </si>
+  <si>
+    <t>Describe a situation when you created a strategy to sustain competitive advantage? How did you do it? What was the result?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explain a time when you anticipated a future trend and implemented a plan to incorporate it. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provide an example of a situation when you placed team goals ahead of your own. </t>
+  </si>
+  <si>
+    <t>Explain a time when you had to lead a diversified team. What was your approach? What were the biggest challenges and how did you manage to overcome them?</t>
+  </si>
+  <si>
+    <t>Provide an example of a situation when you needed to foster an environment of open dialog within a team? What was your approach?</t>
+  </si>
+  <si>
+    <t>Provide an example of a situation when you had to readily learn and adopt a new technology.</t>
+  </si>
+  <si>
+    <t>Provide an example of a time when you had to evaluate different technologies in terms of their suitability to achieve a business need. What was your approach?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provide an example of a time when some technology held you back from completing a project on time or within budget. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provide an example of a situation when someone raised doubts about your intergrity or put it to a test.  Please describe your reaction and elaborate on further development of the situation. </t>
+  </si>
+  <si>
+    <t>Tell me about a time when you were faced with unethical behavior at work. How did you handle the situation?</t>
+  </si>
+  <si>
+    <t>Tell me about a time when you had to gain trust and confidence with others.</t>
+  </si>
+  <si>
+    <t>Tell me about a time when your team experienced low morale. What was your approach?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provide an example of a situation when you had to communicate a vision with a sense of purpose about the future to motivate others. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tell me about a time when you had to explain a complex strategy to associates. How did you communicate and how was the message received? </t>
+  </si>
+  <si>
+    <t>Provide an example of a time when you had to select a process that would best suit a situation. What was your rationale behind the decision?</t>
+  </si>
+  <si>
+    <t>Tell me about a time when you had to break down a complex process to save time and be more effective.</t>
+  </si>
+  <si>
+    <t>Tell me about a time when you identified the need to improve a process. What was your approach?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2241,13 +2403,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2314,10 +2469,30 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
-      <sz val="10"/>
+      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2334,7 +2509,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2357,52 +2532,25 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
@@ -2426,7 +2574,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2435,26 +2583,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2473,7 +2606,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="columnHeader" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2796,1523 +2946,1559 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView topLeftCell="F31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="30" style="1" customWidth="1"/>
-    <col min="3" max="5" width="49.28515625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="49.28515625" style="2" customWidth="1"/>
     <col min="6" max="9" width="72.5703125" style="1" customWidth="1"/>
-    <col min="10" max="12" width="26.85546875" style="7" customWidth="1"/>
-    <col min="13" max="13" width="26.85546875" style="3" customWidth="1"/>
+    <col min="10" max="12" width="26.85546875" style="6" customWidth="1"/>
+    <col min="13" max="13" width="26.85546875" style="2" customWidth="1"/>
     <col min="14" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="M2" s="12"/>
+    </row>
+    <row r="3" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="M3" s="12"/>
+    </row>
+    <row r="4" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="M4" s="12"/>
+    </row>
+    <row r="5" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="M6" s="26"/>
+    </row>
+    <row r="7" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="M7" s="12"/>
+    </row>
+    <row r="8" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="M9" s="9"/>
+    </row>
+    <row r="10" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="M10" s="12"/>
+    </row>
+    <row r="11" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="M11" s="12"/>
+    </row>
+    <row r="12" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="M13" s="12"/>
+    </row>
+    <row r="14" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="J15" s="27" t="s">
+        <v>370</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="M15" s="12"/>
+    </row>
+    <row r="16" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="J16" s="27" t="s">
+        <v>373</v>
+      </c>
+      <c r="K16" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="J17" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="M17" s="12"/>
+    </row>
+    <row r="18" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="J18" s="27" t="s">
+        <v>380</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="M18" s="12"/>
+    </row>
+    <row r="19" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="J19" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="K19" s="27" t="s">
+        <v>384</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="M19" s="12"/>
+    </row>
+    <row r="20" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="I20" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="J20" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="L20" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G21" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="M21" s="12"/>
+    </row>
+    <row r="22" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="M22" s="12"/>
+    </row>
+    <row r="23" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="M23" s="12"/>
+    </row>
+    <row r="24" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="M24" s="12"/>
+    </row>
+    <row r="25" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="G25" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H25" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="I25" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="J25" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="M25" s="9" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F26" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="J1" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="M1" s="11" t="s">
+      <c r="G26" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="I26" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="M27" s="12"/>
+    </row>
+    <row r="28" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="I28" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="M28" s="12"/>
+    </row>
+    <row r="29" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="H29" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="I29" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="L29" s="29" t="s">
+        <v>416</v>
+      </c>
+      <c r="M29" s="12"/>
+    </row>
+    <row r="30" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="H30" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="I30" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="J30" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="K30" s="16" t="s">
+        <v>418</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="M30" s="12"/>
+    </row>
+    <row r="31" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="H31" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="I31" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="M31" s="12"/>
+    </row>
+    <row r="32" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="H32" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="I32" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="J32" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="K32" s="16" t="s">
+        <v>424</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="M32" s="12"/>
+    </row>
+    <row r="33" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="H33" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="I33" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="J33" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="K33" s="16" t="s">
+        <v>427</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="M33" s="12"/>
+    </row>
+    <row r="34" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="H34" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="I34" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="J34" s="30" t="s">
+        <v>429</v>
+      </c>
+      <c r="K34" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="L34" s="30" t="s">
+        <v>430</v>
+      </c>
+      <c r="M34" s="12"/>
+    </row>
+    <row r="35" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="H35" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="I35" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="J35" s="30" t="s">
+        <v>431</v>
+      </c>
+      <c r="K35" s="30" t="s">
+        <v>432</v>
+      </c>
+      <c r="L35" s="30" t="s">
+        <v>433</v>
+      </c>
+      <c r="M35" s="12"/>
+    </row>
+    <row r="36" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>35</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="H36" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="I36" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="J36" s="30" t="s">
+        <v>434</v>
+      </c>
+      <c r="K36" s="30" t="s">
+        <v>435</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="M36" s="12"/>
+    </row>
+    <row r="37" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="H37" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="I37" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="M37" s="12"/>
+    </row>
+    <row r="38" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>37</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E38" s="13" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>197</v>
-      </c>
-      <c r="G2" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="H2" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="I2" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="M2" s="13"/>
-    </row>
-    <row r="3" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="H3" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="I3" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="13"/>
-    </row>
-    <row r="4" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="H4" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="I4" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="13"/>
-    </row>
-    <row r="5" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="H5" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="I5" s="23" t="s">
-        <v>212</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="H6" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="K6" s="8" t="s">
+      <c r="F38" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="G38" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="H38" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="I38" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="M38" s="12"/>
+    </row>
+    <row r="39" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>38</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="13"/>
-    </row>
-    <row r="7" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="H7" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="I7" s="23" t="s">
-        <v>220</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="L7" s="2"/>
-      <c r="M7" s="13"/>
-    </row>
-    <row r="8" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>222</v>
-      </c>
-      <c r="H8" s="23" t="s">
-        <v>223</v>
-      </c>
-      <c r="I8" s="23" t="s">
-        <v>224</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="M8" s="10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>225</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="H9" s="23" t="s">
-        <v>227</v>
-      </c>
-      <c r="I9" s="23" t="s">
-        <v>228</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="M9" s="10"/>
-    </row>
-    <row r="10" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>229</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>230</v>
-      </c>
-      <c r="H10" s="23" t="s">
-        <v>231</v>
-      </c>
-      <c r="I10" s="23" t="s">
-        <v>232</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="L10" s="2"/>
-      <c r="M10" s="13"/>
-    </row>
-    <row r="11" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>233</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>234</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="I11" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="L11" s="2"/>
-      <c r="M11" s="13"/>
-    </row>
-    <row r="12" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>238</v>
-      </c>
-      <c r="H12" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="I12" s="23" t="s">
-        <v>240</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="M12" s="13"/>
-    </row>
-    <row r="13" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>241</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>242</v>
-      </c>
-      <c r="H13" s="23" t="s">
-        <v>243</v>
-      </c>
-      <c r="I13" s="23" t="s">
-        <v>244</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="M13" s="13"/>
-    </row>
-    <row r="14" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>13</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>245</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>246</v>
-      </c>
-      <c r="H14" s="23" t="s">
-        <v>247</v>
-      </c>
-      <c r="I14" s="23" t="s">
+      <c r="F39" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="J14" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="M14" s="13"/>
-    </row>
-    <row r="15" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>14</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="F15" s="23" t="s">
+      <c r="G39" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="G15" s="23" t="s">
+      <c r="H39" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="I39" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="I15" s="23" t="s">
-        <v>252</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="M15" s="13"/>
-    </row>
-    <row r="16" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>15</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="H16" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="I16" s="23" t="s">
-        <v>256</v>
-      </c>
-      <c r="J16" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="K16" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="L16" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="M16" s="13"/>
-    </row>
-    <row r="17" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>16</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>257</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>258</v>
-      </c>
-      <c r="H17" s="23" t="s">
-        <v>259</v>
-      </c>
-      <c r="I17" s="23" t="s">
-        <v>260</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="M17" s="13"/>
-    </row>
-    <row r="18" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>17</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>261</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>262</v>
-      </c>
-      <c r="H18" s="23" t="s">
-        <v>263</v>
-      </c>
-      <c r="I18" s="23" t="s">
-        <v>264</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="L18" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="M18" s="13"/>
-    </row>
-    <row r="19" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>18</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>265</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>266</v>
-      </c>
-      <c r="H19" s="23" t="s">
-        <v>267</v>
-      </c>
-      <c r="I19" s="23" t="s">
-        <v>268</v>
-      </c>
-      <c r="J19" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="L19" s="2"/>
-      <c r="M19" s="13"/>
-    </row>
-    <row r="20" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>19</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>269</v>
-      </c>
-      <c r="G20" s="23" t="s">
-        <v>270</v>
-      </c>
-      <c r="H20" s="23" t="s">
-        <v>271</v>
-      </c>
-      <c r="I20" s="23" t="s">
-        <v>272</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="L20" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="M20" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>20</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="F21" s="23" t="s">
-        <v>273</v>
-      </c>
-      <c r="G21" s="23" t="s">
-        <v>274</v>
-      </c>
-      <c r="H21" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="I21" s="23" t="s">
-        <v>276</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="M21" s="13"/>
-    </row>
-    <row r="22" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <v>21</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="F22" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="G22" s="23" t="s">
-        <v>278</v>
-      </c>
-      <c r="H22" s="23" t="s">
-        <v>279</v>
-      </c>
-      <c r="I22" s="23" t="s">
-        <v>280</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="K22" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="L22" s="2"/>
-      <c r="M22" s="13"/>
-    </row>
-    <row r="23" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <v>22</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="F23" s="23" t="s">
-        <v>281</v>
-      </c>
-      <c r="G23" s="23" t="s">
-        <v>282</v>
-      </c>
-      <c r="H23" s="23" t="s">
-        <v>283</v>
-      </c>
-      <c r="I23" s="23" t="s">
-        <v>284</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="L23" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="M23" s="13"/>
-    </row>
-    <row r="24" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
-        <v>23</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="F24" s="23" t="s">
-        <v>285</v>
-      </c>
-      <c r="G24" s="23" t="s">
-        <v>286</v>
-      </c>
-      <c r="H24" s="23" t="s">
-        <v>287</v>
-      </c>
-      <c r="I24" s="23" t="s">
-        <v>288</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="K24" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="L24" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="M24" s="13"/>
-    </row>
-    <row r="25" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
-        <v>24</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="F25" s="23" t="s">
-        <v>289</v>
-      </c>
-      <c r="G25" s="23" t="s">
-        <v>290</v>
-      </c>
-      <c r="H25" s="23" t="s">
-        <v>291</v>
-      </c>
-      <c r="I25" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="K25" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="L25" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="M25" s="10" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
-        <v>25</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="F26" s="23" t="s">
-        <v>293</v>
-      </c>
-      <c r="G26" s="23" t="s">
-        <v>294</v>
-      </c>
-      <c r="H26" s="23" t="s">
-        <v>295</v>
-      </c>
-      <c r="I26" s="23" t="s">
-        <v>296</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="K26" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="L26" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="M26" s="10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
-        <v>26</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>387</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="F27" s="23" t="s">
-        <v>297</v>
-      </c>
-      <c r="G27" s="23" t="s">
-        <v>298</v>
-      </c>
-      <c r="H27" s="23" t="s">
-        <v>299</v>
-      </c>
-      <c r="I27" s="23" t="s">
-        <v>300</v>
-      </c>
-      <c r="J27" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="L27" s="8"/>
-      <c r="M27" s="13"/>
-    </row>
-    <row r="28" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
-        <v>27</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>388</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="F28" s="23" t="s">
-        <v>301</v>
-      </c>
-      <c r="G28" s="23" t="s">
-        <v>302</v>
-      </c>
-      <c r="H28" s="23" t="s">
-        <v>303</v>
-      </c>
-      <c r="I28" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="J28" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="K28" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="L28" s="8"/>
-      <c r="M28" s="13"/>
-    </row>
-    <row r="29" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
-        <v>28</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>389</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="F29" s="23" t="s">
-        <v>305</v>
-      </c>
-      <c r="G29" s="23" t="s">
-        <v>306</v>
-      </c>
-      <c r="H29" s="23" t="s">
-        <v>307</v>
-      </c>
-      <c r="I29" s="23" t="s">
-        <v>308</v>
-      </c>
-      <c r="J29" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="K29" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="L29" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="M29" s="13"/>
-    </row>
-    <row r="30" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
-        <v>29</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>390</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="F30" s="23" t="s">
-        <v>309</v>
-      </c>
-      <c r="G30" s="23" t="s">
-        <v>310</v>
-      </c>
-      <c r="H30" s="23" t="s">
-        <v>311</v>
-      </c>
-      <c r="I30" s="23" t="s">
-        <v>312</v>
-      </c>
-      <c r="J30" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="K30" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="L30" s="2"/>
-      <c r="M30" s="13"/>
-    </row>
-    <row r="31" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
-        <v>30</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="F31" s="23" t="s">
-        <v>313</v>
-      </c>
-      <c r="G31" s="23" t="s">
-        <v>314</v>
-      </c>
-      <c r="H31" s="23" t="s">
-        <v>315</v>
-      </c>
-      <c r="I31" s="23" t="s">
-        <v>316</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="M31" s="13"/>
-    </row>
-    <row r="32" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
-        <v>31</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>391</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="F32" s="23" t="s">
-        <v>317</v>
-      </c>
-      <c r="G32" s="23" t="s">
-        <v>318</v>
-      </c>
-      <c r="H32" s="23" t="s">
-        <v>319</v>
-      </c>
-      <c r="I32" s="23" t="s">
-        <v>320</v>
-      </c>
-      <c r="J32" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="K32" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="L32" s="2"/>
-      <c r="M32" s="13"/>
-    </row>
-    <row r="33" spans="1:13" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="5">
-        <v>32</v>
-      </c>
-      <c r="B33" s="17" t="s">
-        <v>392</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="F33" s="23" t="s">
-        <v>321</v>
-      </c>
-      <c r="G33" s="23" t="s">
-        <v>322</v>
-      </c>
-      <c r="H33" s="23" t="s">
-        <v>323</v>
-      </c>
-      <c r="I33" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="J33" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="K33" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="L33" s="2"/>
-      <c r="M33" s="13"/>
-    </row>
-    <row r="34" spans="1:13" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="5">
-        <v>33</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>393</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="F34" s="23" t="s">
-        <v>325</v>
-      </c>
-      <c r="G34" s="23" t="s">
-        <v>326</v>
-      </c>
-      <c r="H34" s="23" t="s">
-        <v>327</v>
-      </c>
-      <c r="I34" s="23" t="s">
-        <v>328</v>
-      </c>
-      <c r="J34" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="K34" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="L34" s="19"/>
-      <c r="M34" s="13"/>
-    </row>
-    <row r="35" spans="1:13" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="5">
-        <v>34</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>394</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="F35" s="23" t="s">
-        <v>329</v>
-      </c>
-      <c r="G35" s="23" t="s">
-        <v>330</v>
-      </c>
-      <c r="H35" s="23" t="s">
-        <v>331</v>
-      </c>
-      <c r="I35" s="23" t="s">
-        <v>332</v>
-      </c>
-      <c r="J35" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="K35" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="L35" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="M35" s="13"/>
-    </row>
-    <row r="36" spans="1:13" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="5">
-        <v>35</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>395</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="F36" s="23" t="s">
-        <v>333</v>
-      </c>
-      <c r="G36" s="23" t="s">
-        <v>334</v>
-      </c>
-      <c r="H36" s="23" t="s">
-        <v>335</v>
-      </c>
-      <c r="I36" s="23" t="s">
-        <v>336</v>
-      </c>
-      <c r="J36" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="K36" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="L36" s="2"/>
-      <c r="M36" s="13"/>
-    </row>
-    <row r="37" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
-        <v>36</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>396</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="F37" s="23" t="s">
-        <v>337</v>
-      </c>
-      <c r="G37" s="23" t="s">
-        <v>338</v>
-      </c>
-      <c r="H37" s="23" t="s">
-        <v>339</v>
-      </c>
-      <c r="I37" s="23" t="s">
-        <v>340</v>
-      </c>
-      <c r="J37" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="K37" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="L37" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="M37" s="13"/>
-    </row>
-    <row r="38" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
-        <v>37</v>
-      </c>
-      <c r="B38" s="17" t="s">
-        <v>397</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="E38" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="F38" s="23" t="s">
-        <v>341</v>
-      </c>
-      <c r="G38" s="23" t="s">
-        <v>342</v>
-      </c>
-      <c r="H38" s="23" t="s">
-        <v>343</v>
-      </c>
-      <c r="I38" s="23" t="s">
-        <v>344</v>
-      </c>
-      <c r="J38" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="K38" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="L38" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="M38" s="13"/>
-    </row>
-    <row r="39" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
-        <v>38</v>
-      </c>
-      <c r="B39" s="17" t="s">
-        <v>398</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="F39" s="23" t="s">
-        <v>345</v>
-      </c>
-      <c r="G39" s="23" t="s">
-        <v>346</v>
-      </c>
-      <c r="H39" s="23" t="s">
-        <v>347</v>
-      </c>
-      <c r="I39" s="23" t="s">
-        <v>348</v>
-      </c>
-      <c r="J39" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K39" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="L39" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="M39" s="13"/>
+      <c r="J39" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="M39" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4322,208 +4508,315 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:V1048576"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="28"/>
-    <col min="2" max="2" width="34.85546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.7109375" style="28" customWidth="1"/>
-    <col min="4" max="5" width="57.140625" style="28" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="22"/>
+    <col min="2" max="2" width="34.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.7109375" style="22" customWidth="1"/>
+    <col min="4" max="5" width="57.140625" style="22" customWidth="1"/>
+    <col min="6" max="6" width="35.5703125" customWidth="1"/>
+    <col min="7" max="7" width="37" customWidth="1"/>
+    <col min="8" max="8" width="30.28515625" customWidth="1"/>
+    <col min="9" max="9" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
-        <v>382</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>383</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>384</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>385</v>
-      </c>
-      <c r="E1" s="29" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A2" s="24">
+    <row r="1" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>287</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>302</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A2" s="18">
         <v>101</v>
       </c>
-      <c r="B2" s="24" t="s">
-        <v>349</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>350</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>351</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A3" s="24">
+      <c r="B2" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="212.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18">
         <v>102</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>353</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>350</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>354</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A4" s="24">
+      <c r="B3" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="I3" s="17"/>
+    </row>
+    <row r="4" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="A4" s="18">
         <v>103</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>356</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>350</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>357</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A5" s="24">
+      <c r="B4" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+    </row>
+    <row r="5" spans="1:9" ht="171.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18">
         <v>104</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>359</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>360</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>361</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A6" s="24">
+      <c r="B5" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18">
         <v>105</v>
       </c>
-      <c r="B6" s="24" t="s">
-        <v>363</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>360</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>364</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A7" s="24">
+      <c r="B6" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="I6" s="17"/>
+    </row>
+    <row r="7" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="18">
         <v>106</v>
       </c>
-      <c r="B7" s="24" t="s">
-        <v>366</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>360</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>367</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="A8" s="24">
+      <c r="B7" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+    </row>
+    <row r="8" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A8" s="18">
         <v>107</v>
       </c>
-      <c r="B8" s="24" t="s">
-        <v>369</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>370</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
+      <c r="B8" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+    </row>
+    <row r="9" spans="1:9" ht="156" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="18">
         <v>108</v>
       </c>
-      <c r="B9" s="24" t="s">
-        <v>373</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>370</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>374</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A10" s="24">
+      <c r="B9" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="I9" s="17"/>
+    </row>
+    <row r="10" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A10" s="18">
         <v>109</v>
       </c>
-      <c r="B10" s="24" t="s">
-        <v>376</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>370</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>377</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A11" s="24">
+      <c r="B10" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+    </row>
+    <row r="11" spans="1:9" ht="186.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18">
         <v>110</v>
       </c>
-      <c r="B11" s="24" t="s">
-        <v>379</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>370</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>380</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>381</v>
-      </c>
+      <c r="B11" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>